--- a/data/raw/literature_coding_results.xlsx
+++ b/data/raw/literature_coding_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakob/PycharmProjects/Smartphone_Web_Surveys_A_Systematic_Literature_Review/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FAE65C-BD50-314D-8436-579E3D2EC296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342E7C0E-A6F9-844A-B05D-690567E97733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$KJ$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$KB$87</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="510">
   <si>
     <t>article_name</t>
   </si>
@@ -159,12 +159,6 @@
     <t>mobile_design_recommendations</t>
   </si>
   <si>
-    <t>mobile_app_advantages</t>
-  </si>
-  <si>
-    <t>mobile_app_disadvantages</t>
-  </si>
-  <si>
     <t>mobile_participants_social_class_higher</t>
   </si>
   <si>
@@ -195,12 +189,6 @@
     <t>mobile_missing_items_rate_higher</t>
   </si>
   <si>
-    <t>participants_incentivized</t>
-  </si>
-  <si>
-    <t>mobile_app_survey</t>
-  </si>
-  <si>
     <t>mobile_participant_more_non_white</t>
   </si>
   <si>
@@ -282,12 +270,6 @@
     <t>review_mobile_design</t>
   </si>
   <si>
-    <t>quality_no_outlier_deleted</t>
-  </si>
-  <si>
-    <t>quality_geometric_mean</t>
-  </si>
-  <si>
     <t>review_current_research</t>
   </si>
   <si>
@@ -540,9 +522,6 @@
     <t>mobile_design_agree_disagree_shorter_completion_time_than_item_specific_question</t>
   </si>
   <si>
-    <t>review_summarizes_existing_results</t>
-  </si>
-  <si>
     <t>mobile_positive_evaluation_anwser_less</t>
   </si>
   <si>
@@ -627,21 +606,6 @@
     <t>mobile_design_item_by_item_higher_number_of_columns_higher_straightlining</t>
   </si>
   <si>
-    <t>paradata</t>
-  </si>
-  <si>
-    <t>paradata_higher_motion_means_higher_completion_time_if_grid</t>
-  </si>
-  <si>
-    <t>paradata_higher_motion_means_higher_completion_time_if_single_question</t>
-  </si>
-  <si>
-    <t>paradata_higher_motion_means_higher_primacy_effect_if_grid</t>
-  </si>
-  <si>
-    <t>paradata_higher_motion_means_higher_primacy_effect_if_single_question</t>
-  </si>
-  <si>
     <t>mobile_design_questions_by_section_higher_completion_time</t>
   </si>
   <si>
@@ -795,21 +759,6 @@
     <t>mobile_completion_rate_matrix_lower</t>
   </si>
   <si>
-    <t>paradata_standing_motion_compliance_more_than_walking</t>
-  </si>
-  <si>
-    <t>paradata_standing_less_primacy_more_than_walking</t>
-  </si>
-  <si>
-    <t>paradata_standing_more_recency_than_walking</t>
-  </si>
-  <si>
-    <t>paradata_standing_more_middle_values_than_walking</t>
-  </si>
-  <si>
-    <t>paradata_standing_less_extreme_values_than_walking</t>
-  </si>
-  <si>
     <t>mobile_meaningfull_answers_less</t>
   </si>
   <si>
@@ -1320,9 +1269,6 @@
     <t>Sweets</t>
   </si>
   <si>
-    <t>Motion</t>
-  </si>
-  <si>
     <t>The effect of format and device on the performance and usability of web-based questionnaires</t>
   </si>
   <si>
@@ -1591,6 +1537,33 @@
   </si>
   <si>
     <t>mobile_design_image_effect_lower</t>
+  </si>
+  <si>
+    <t>input_alternative_moving_data_higher_motion_means_higher_completion_time_if_grid</t>
+  </si>
+  <si>
+    <t>input_alternative_moving_data_higher_motion_means_higher_completion_time_if_single_question</t>
+  </si>
+  <si>
+    <t>input_alternative_moving_data_higher_motion_means_higher_primacy_effect_if_grid</t>
+  </si>
+  <si>
+    <t>input_alternative_moving_data_higher_motion_means_higher_primacy_effect_if_single_question</t>
+  </si>
+  <si>
+    <t>input_alternative_moving_data_standing_motion_compliance_more_than_walking</t>
+  </si>
+  <si>
+    <t>input_alternative_moving_data_standing_less_primacy_more_than_walking</t>
+  </si>
+  <si>
+    <t>input_alternative_moving_data_standing_more_recency_than_walking</t>
+  </si>
+  <si>
+    <t>input_alternative_moving_data_standing_more_middle_values_than_walking</t>
+  </si>
+  <si>
+    <t>input_alternative_moving_data_standing_less_extreme_values_than_walking</t>
   </si>
 </sst>
 </file>
@@ -1954,10 +1927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KJ87"/>
+  <dimension ref="A1:KB87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="GS1" workbookViewId="0">
+      <selection activeCell="GT13" sqref="GT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2003,263 +1976,255 @@
     <col min="39" max="39" width="39.6640625" customWidth="1"/>
     <col min="40" max="40" width="38.1640625" customWidth="1"/>
     <col min="41" max="41" width="33" customWidth="1"/>
-    <col min="42" max="42" width="24.83203125" customWidth="1"/>
-    <col min="43" max="43" width="27.1640625" customWidth="1"/>
-    <col min="44" max="44" width="37.6640625" customWidth="1"/>
-    <col min="45" max="45" width="32.5" customWidth="1"/>
-    <col min="46" max="46" width="33.33203125" customWidth="1"/>
-    <col min="47" max="47" width="34.6640625" customWidth="1"/>
-    <col min="48" max="48" width="53" customWidth="1"/>
-    <col min="49" max="49" width="32.5" customWidth="1"/>
-    <col min="50" max="50" width="36.83203125" customWidth="1"/>
-    <col min="51" max="51" width="37" customWidth="1"/>
-    <col min="52" max="52" width="31.83203125" customWidth="1"/>
-    <col min="53" max="53" width="33.6640625" customWidth="1"/>
-    <col min="54" max="54" width="25.83203125" customWidth="1"/>
-    <col min="55" max="55" width="21.33203125" customWidth="1"/>
-    <col min="56" max="56" width="35.6640625" customWidth="1"/>
-    <col min="57" max="57" width="38.33203125" customWidth="1"/>
-    <col min="58" max="58" width="55.5" customWidth="1"/>
-    <col min="59" max="59" width="76" customWidth="1"/>
-    <col min="60" max="60" width="56.33203125" customWidth="1"/>
-    <col min="61" max="61" width="56.1640625" customWidth="1"/>
-    <col min="62" max="62" width="54.33203125" customWidth="1"/>
-    <col min="63" max="63" width="47.83203125" customWidth="1"/>
-    <col min="64" max="64" width="65" customWidth="1"/>
-    <col min="65" max="65" width="56.5" customWidth="1"/>
-    <col min="66" max="66" width="58.6640625" customWidth="1"/>
-    <col min="67" max="67" width="50" customWidth="1"/>
-    <col min="68" max="68" width="54" customWidth="1"/>
-    <col min="69" max="69" width="65.5" customWidth="1"/>
-    <col min="70" max="70" width="50.83203125" customWidth="1"/>
-    <col min="71" max="71" width="57.5" customWidth="1"/>
-    <col min="72" max="72" width="42.1640625" customWidth="1"/>
-    <col min="73" max="73" width="58.5" customWidth="1"/>
-    <col min="74" max="74" width="36" customWidth="1"/>
-    <col min="75" max="75" width="34" customWidth="1"/>
-    <col min="76" max="76" width="31.83203125" customWidth="1"/>
-    <col min="77" max="77" width="30.6640625" customWidth="1"/>
-    <col min="78" max="78" width="22" customWidth="1"/>
-    <col min="79" max="79" width="28.1640625" customWidth="1"/>
-    <col min="80" max="80" width="28" customWidth="1"/>
-    <col min="81" max="81" width="44.6640625" customWidth="1"/>
-    <col min="82" max="82" width="52.83203125" customWidth="1"/>
-    <col min="83" max="83" width="23.83203125" customWidth="1"/>
-    <col min="84" max="84" width="27.83203125" customWidth="1"/>
-    <col min="85" max="85" width="25.6640625" customWidth="1"/>
-    <col min="86" max="86" width="25.83203125" customWidth="1"/>
-    <col min="87" max="87" width="26.6640625" customWidth="1"/>
-    <col min="88" max="88" width="24.5" customWidth="1"/>
-    <col min="89" max="89" width="45.33203125" customWidth="1"/>
-    <col min="90" max="90" width="26.6640625" customWidth="1"/>
-    <col min="91" max="91" width="25" customWidth="1"/>
-    <col min="92" max="92" width="47.6640625" customWidth="1"/>
-    <col min="93" max="93" width="55" customWidth="1"/>
-    <col min="94" max="94" width="31.83203125" customWidth="1"/>
-    <col min="95" max="95" width="49.1640625" customWidth="1"/>
-    <col min="96" max="96" width="55.5" customWidth="1"/>
-    <col min="97" max="97" width="55.6640625" customWidth="1"/>
-    <col min="98" max="98" width="70.83203125" customWidth="1"/>
-    <col min="99" max="99" width="36.5" customWidth="1"/>
-    <col min="100" max="100" width="75.1640625" customWidth="1"/>
-    <col min="101" max="101" width="71" customWidth="1"/>
-    <col min="102" max="102" width="58" customWidth="1"/>
-    <col min="103" max="103" width="48.5" customWidth="1"/>
-    <col min="104" max="104" width="51.1640625" customWidth="1"/>
-    <col min="105" max="105" width="41.33203125" customWidth="1"/>
-    <col min="106" max="106" width="45.6640625" customWidth="1"/>
-    <col min="107" max="107" width="39.5" customWidth="1"/>
-    <col min="108" max="108" width="37.6640625" customWidth="1"/>
-    <col min="109" max="109" width="40.6640625" customWidth="1"/>
-    <col min="110" max="110" width="28.33203125" customWidth="1"/>
-    <col min="111" max="111" width="34.6640625" customWidth="1"/>
-    <col min="112" max="112" width="38.1640625" customWidth="1"/>
-    <col min="113" max="113" width="28.83203125" customWidth="1"/>
-    <col min="114" max="114" width="38.1640625" customWidth="1"/>
-    <col min="115" max="115" width="70.1640625" customWidth="1"/>
+    <col min="42" max="42" width="37.6640625" customWidth="1"/>
+    <col min="43" max="43" width="32.5" customWidth="1"/>
+    <col min="44" max="44" width="33.33203125" customWidth="1"/>
+    <col min="45" max="45" width="34.6640625" customWidth="1"/>
+    <col min="46" max="46" width="53" customWidth="1"/>
+    <col min="47" max="47" width="32.5" customWidth="1"/>
+    <col min="48" max="48" width="36.83203125" customWidth="1"/>
+    <col min="49" max="49" width="37" customWidth="1"/>
+    <col min="50" max="50" width="31.83203125" customWidth="1"/>
+    <col min="51" max="51" width="33.6640625" customWidth="1"/>
+    <col min="52" max="52" width="35.6640625" customWidth="1"/>
+    <col min="53" max="53" width="38.33203125" customWidth="1"/>
+    <col min="54" max="54" width="55.5" customWidth="1"/>
+    <col min="55" max="55" width="76" customWidth="1"/>
+    <col min="56" max="56" width="56.33203125" customWidth="1"/>
+    <col min="57" max="57" width="56.1640625" customWidth="1"/>
+    <col min="58" max="58" width="54.33203125" customWidth="1"/>
+    <col min="59" max="59" width="47.83203125" customWidth="1"/>
+    <col min="60" max="60" width="65" customWidth="1"/>
+    <col min="61" max="61" width="56.5" customWidth="1"/>
+    <col min="62" max="62" width="58.6640625" customWidth="1"/>
+    <col min="63" max="63" width="50" customWidth="1"/>
+    <col min="64" max="64" width="54" customWidth="1"/>
+    <col min="65" max="65" width="65.5" customWidth="1"/>
+    <col min="66" max="66" width="50.83203125" customWidth="1"/>
+    <col min="67" max="67" width="57.5" customWidth="1"/>
+    <col min="68" max="68" width="42.1640625" customWidth="1"/>
+    <col min="69" max="69" width="58.5" customWidth="1"/>
+    <col min="70" max="70" width="36" customWidth="1"/>
+    <col min="71" max="71" width="34" customWidth="1"/>
+    <col min="72" max="72" width="31.83203125" customWidth="1"/>
+    <col min="73" max="73" width="30.6640625" customWidth="1"/>
+    <col min="74" max="74" width="22" customWidth="1"/>
+    <col min="75" max="75" width="28.1640625" customWidth="1"/>
+    <col min="76" max="76" width="28" customWidth="1"/>
+    <col min="77" max="77" width="44.6640625" customWidth="1"/>
+    <col min="78" max="78" width="52.83203125" customWidth="1"/>
+    <col min="79" max="79" width="23.83203125" customWidth="1"/>
+    <col min="80" max="80" width="25.83203125" customWidth="1"/>
+    <col min="81" max="81" width="26.6640625" customWidth="1"/>
+    <col min="82" max="82" width="24.5" customWidth="1"/>
+    <col min="83" max="83" width="45.33203125" customWidth="1"/>
+    <col min="84" max="84" width="26.6640625" customWidth="1"/>
+    <col min="85" max="85" width="25" customWidth="1"/>
+    <col min="86" max="86" width="47.6640625" customWidth="1"/>
+    <col min="87" max="87" width="55" customWidth="1"/>
+    <col min="88" max="88" width="31.83203125" customWidth="1"/>
+    <col min="89" max="89" width="49.1640625" customWidth="1"/>
+    <col min="90" max="90" width="55.5" customWidth="1"/>
+    <col min="91" max="91" width="55.6640625" customWidth="1"/>
+    <col min="92" max="92" width="70.83203125" customWidth="1"/>
+    <col min="93" max="93" width="36.5" customWidth="1"/>
+    <col min="94" max="94" width="75.1640625" customWidth="1"/>
+    <col min="95" max="95" width="71" customWidth="1"/>
+    <col min="96" max="96" width="58" customWidth="1"/>
+    <col min="97" max="97" width="48.5" customWidth="1"/>
+    <col min="98" max="98" width="51.1640625" customWidth="1"/>
+    <col min="99" max="99" width="41.33203125" customWidth="1"/>
+    <col min="100" max="100" width="45.6640625" customWidth="1"/>
+    <col min="101" max="101" width="39.5" customWidth="1"/>
+    <col min="102" max="102" width="37.6640625" customWidth="1"/>
+    <col min="103" max="103" width="40.6640625" customWidth="1"/>
+    <col min="104" max="104" width="28.33203125" customWidth="1"/>
+    <col min="105" max="105" width="34.6640625" customWidth="1"/>
+    <col min="106" max="106" width="38.1640625" customWidth="1"/>
+    <col min="107" max="107" width="28.83203125" customWidth="1"/>
+    <col min="108" max="108" width="38.1640625" customWidth="1"/>
+    <col min="109" max="109" width="70.1640625" customWidth="1"/>
+    <col min="110" max="110" width="39.83203125" customWidth="1"/>
+    <col min="111" max="111" width="33.6640625" customWidth="1"/>
+    <col min="112" max="112" width="35.83203125" customWidth="1"/>
+    <col min="113" max="113" width="49.33203125" customWidth="1"/>
+    <col min="114" max="114" width="37.5" customWidth="1"/>
+    <col min="115" max="115" width="28.1640625" customWidth="1"/>
     <col min="116" max="116" width="39.83203125" customWidth="1"/>
-    <col min="117" max="117" width="33.6640625" customWidth="1"/>
-    <col min="118" max="118" width="35.83203125" customWidth="1"/>
-    <col min="119" max="119" width="49.33203125" customWidth="1"/>
-    <col min="120" max="120" width="37.5" customWidth="1"/>
-    <col min="121" max="121" width="28.1640625" customWidth="1"/>
-    <col min="122" max="122" width="39.83203125" customWidth="1"/>
-    <col min="123" max="123" width="41.5" customWidth="1"/>
-    <col min="124" max="124" width="40.83203125" customWidth="1"/>
-    <col min="125" max="125" width="47.6640625" customWidth="1"/>
-    <col min="126" max="126" width="45.83203125" customWidth="1"/>
-    <col min="127" max="127" width="45.33203125" customWidth="1"/>
-    <col min="128" max="128" width="34" customWidth="1"/>
-    <col min="129" max="129" width="48.33203125" customWidth="1"/>
-    <col min="130" max="130" width="62.6640625" customWidth="1"/>
-    <col min="131" max="131" width="52.83203125" customWidth="1"/>
-    <col min="132" max="132" width="28" customWidth="1"/>
-    <col min="133" max="133" width="30" customWidth="1"/>
-    <col min="134" max="134" width="41.6640625" customWidth="1"/>
-    <col min="135" max="135" width="40.6640625" customWidth="1"/>
-    <col min="136" max="136" width="25.83203125" customWidth="1"/>
-    <col min="137" max="137" width="25.33203125" customWidth="1"/>
-    <col min="138" max="138" width="30.33203125" customWidth="1"/>
-    <col min="139" max="139" width="49.33203125" customWidth="1"/>
-    <col min="140" max="140" width="56.33203125" customWidth="1"/>
-    <col min="141" max="141" width="57" customWidth="1"/>
-    <col min="142" max="142" width="60.83203125" customWidth="1"/>
-    <col min="143" max="143" width="51.83203125" customWidth="1"/>
-    <col min="144" max="144" width="57.6640625" customWidth="1"/>
-    <col min="145" max="145" width="65.1640625" customWidth="1"/>
-    <col min="146" max="146" width="77.1640625" customWidth="1"/>
-    <col min="147" max="147" width="61" customWidth="1"/>
-    <col min="148" max="148" width="33.33203125" customWidth="1"/>
-    <col min="149" max="149" width="34.1640625" customWidth="1"/>
-    <col min="150" max="150" width="55.83203125" customWidth="1"/>
-    <col min="151" max="151" width="62" customWidth="1"/>
-    <col min="152" max="152" width="63.33203125" customWidth="1"/>
-    <col min="153" max="153" width="29.5" customWidth="1"/>
-    <col min="154" max="154" width="56" customWidth="1"/>
-    <col min="155" max="155" width="33" customWidth="1"/>
-    <col min="156" max="156" width="32.1640625" customWidth="1"/>
-    <col min="157" max="157" width="73.5" customWidth="1"/>
-    <col min="158" max="158" width="75" customWidth="1"/>
-    <col min="159" max="159" width="74.33203125" customWidth="1"/>
-    <col min="160" max="160" width="50.83203125" customWidth="1"/>
-    <col min="161" max="161" width="52.5" customWidth="1"/>
-    <col min="162" max="162" width="58" customWidth="1"/>
-    <col min="163" max="163" width="28.5" customWidth="1"/>
-    <col min="164" max="164" width="30.33203125" customWidth="1"/>
-    <col min="165" max="165" width="54.33203125" customWidth="1"/>
-    <col min="166" max="166" width="100.5" customWidth="1"/>
-    <col min="167" max="167" width="87" customWidth="1"/>
-    <col min="168" max="168" width="75.83203125" customWidth="1"/>
-    <col min="169" max="169" width="81.33203125" customWidth="1"/>
-    <col min="170" max="170" width="62.1640625" customWidth="1"/>
-    <col min="171" max="171" width="71.1640625" customWidth="1"/>
-    <col min="172" max="172" width="75.83203125" customWidth="1"/>
-    <col min="173" max="173" width="34.6640625" customWidth="1"/>
-    <col min="174" max="174" width="52.83203125" customWidth="1"/>
-    <col min="175" max="175" width="65.6640625" customWidth="1"/>
-    <col min="176" max="176" width="61.1640625" customWidth="1"/>
-    <col min="177" max="177" width="74.1640625" customWidth="1"/>
-    <col min="178" max="178" width="57.83203125" customWidth="1"/>
-    <col min="179" max="179" width="70.6640625" customWidth="1"/>
-    <col min="180" max="180" width="38.33203125" customWidth="1"/>
-    <col min="181" max="181" width="63.1640625" customWidth="1"/>
-    <col min="182" max="182" width="68.1640625" customWidth="1"/>
+    <col min="117" max="117" width="41.5" customWidth="1"/>
+    <col min="118" max="118" width="40.83203125" customWidth="1"/>
+    <col min="119" max="119" width="47.6640625" customWidth="1"/>
+    <col min="120" max="120" width="45.83203125" customWidth="1"/>
+    <col min="121" max="121" width="45.33203125" customWidth="1"/>
+    <col min="122" max="122" width="34" customWidth="1"/>
+    <col min="123" max="123" width="48.33203125" customWidth="1"/>
+    <col min="124" max="124" width="62.6640625" customWidth="1"/>
+    <col min="125" max="125" width="52.83203125" customWidth="1"/>
+    <col min="126" max="126" width="28" customWidth="1"/>
+    <col min="127" max="127" width="30" customWidth="1"/>
+    <col min="128" max="128" width="41.6640625" customWidth="1"/>
+    <col min="129" max="129" width="40.6640625" customWidth="1"/>
+    <col min="130" max="130" width="25.83203125" customWidth="1"/>
+    <col min="131" max="131" width="25.33203125" customWidth="1"/>
+    <col min="132" max="132" width="30.33203125" customWidth="1"/>
+    <col min="133" max="133" width="49.33203125" customWidth="1"/>
+    <col min="134" max="134" width="56.33203125" customWidth="1"/>
+    <col min="135" max="135" width="57" customWidth="1"/>
+    <col min="136" max="136" width="60.83203125" customWidth="1"/>
+    <col min="137" max="137" width="51.83203125" customWidth="1"/>
+    <col min="138" max="138" width="57.6640625" customWidth="1"/>
+    <col min="139" max="139" width="65.1640625" customWidth="1"/>
+    <col min="140" max="140" width="77.1640625" customWidth="1"/>
+    <col min="141" max="141" width="61" customWidth="1"/>
+    <col min="142" max="142" width="33.33203125" customWidth="1"/>
+    <col min="143" max="143" width="34.1640625" customWidth="1"/>
+    <col min="144" max="144" width="55.83203125" customWidth="1"/>
+    <col min="145" max="145" width="62" customWidth="1"/>
+    <col min="146" max="146" width="63.33203125" customWidth="1"/>
+    <col min="147" max="147" width="29.5" customWidth="1"/>
+    <col min="148" max="148" width="56" customWidth="1"/>
+    <col min="149" max="149" width="33" customWidth="1"/>
+    <col min="150" max="150" width="32.1640625" customWidth="1"/>
+    <col min="151" max="151" width="73.5" customWidth="1"/>
+    <col min="152" max="152" width="75" customWidth="1"/>
+    <col min="153" max="153" width="74.33203125" customWidth="1"/>
+    <col min="154" max="154" width="50.83203125" customWidth="1"/>
+    <col min="155" max="155" width="52.5" customWidth="1"/>
+    <col min="156" max="156" width="58" customWidth="1"/>
+    <col min="157" max="157" width="28.5" customWidth="1"/>
+    <col min="158" max="158" width="30.33203125" customWidth="1"/>
+    <col min="159" max="159" width="54.33203125" customWidth="1"/>
+    <col min="160" max="160" width="100.5" customWidth="1"/>
+    <col min="161" max="161" width="87" customWidth="1"/>
+    <col min="162" max="162" width="75.83203125" customWidth="1"/>
+    <col min="163" max="163" width="81.33203125" customWidth="1"/>
+    <col min="164" max="164" width="62.1640625" customWidth="1"/>
+    <col min="165" max="165" width="71.1640625" customWidth="1"/>
+    <col min="166" max="166" width="75.83203125" customWidth="1"/>
+    <col min="167" max="167" width="52.83203125" customWidth="1"/>
+    <col min="168" max="168" width="65.6640625" customWidth="1"/>
+    <col min="169" max="169" width="61.1640625" customWidth="1"/>
+    <col min="170" max="170" width="74.1640625" customWidth="1"/>
+    <col min="171" max="171" width="57.83203125" customWidth="1"/>
+    <col min="172" max="172" width="70.6640625" customWidth="1"/>
+    <col min="173" max="173" width="38.33203125" customWidth="1"/>
+    <col min="174" max="174" width="63.1640625" customWidth="1"/>
+    <col min="175" max="175" width="68.1640625" customWidth="1"/>
+    <col min="176" max="176" width="65.83203125" customWidth="1"/>
+    <col min="177" max="177" width="55.5" customWidth="1"/>
+    <col min="178" max="178" width="60.5" customWidth="1"/>
+    <col min="179" max="179" width="59.5" customWidth="1"/>
+    <col min="180" max="180" width="63.1640625" customWidth="1"/>
+    <col min="181" max="181" width="75.33203125" customWidth="1"/>
+    <col min="182" max="182" width="70" customWidth="1"/>
     <col min="183" max="183" width="65.83203125" customWidth="1"/>
-    <col min="184" max="184" width="55.5" customWidth="1"/>
-    <col min="185" max="185" width="60.5" customWidth="1"/>
-    <col min="186" max="186" width="59.5" customWidth="1"/>
-    <col min="187" max="187" width="63.1640625" customWidth="1"/>
-    <col min="188" max="188" width="75.33203125" customWidth="1"/>
-    <col min="189" max="189" width="70" customWidth="1"/>
-    <col min="190" max="190" width="65.83203125" customWidth="1"/>
-    <col min="191" max="191" width="57.1640625" customWidth="1"/>
-    <col min="192" max="192" width="28.1640625" customWidth="1"/>
-    <col min="193" max="193" width="51.6640625" customWidth="1"/>
-    <col min="194" max="194" width="56.33203125" customWidth="1"/>
-    <col min="195" max="196" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="35" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="63.33203125" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="67.1640625" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="67.33203125" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="66.33203125" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="66.1640625" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="70.33203125" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="70.1640625" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="58.1640625" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="67.5" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="56" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="56.33203125" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="56.83203125" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="49.1640625" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="43" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="49" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="52" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="51" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="63" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="60" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="40" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="61.5" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="60" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="39" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="57" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="53.1640625" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="50.83203125" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="56.1640625" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="54.83203125" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="49" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="49.1640625" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="54.1640625" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="36" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="43" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="44" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="57.1640625" customWidth="1"/>
+    <col min="185" max="185" width="28.1640625" customWidth="1"/>
+    <col min="186" max="186" width="51.6640625" customWidth="1"/>
+    <col min="187" max="187" width="56.33203125" customWidth="1"/>
+    <col min="188" max="189" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="35" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="67.1640625" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="66.33203125" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="66.1640625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="70.33203125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="70.1640625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="58.1640625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="56" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="43" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="49" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="52" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="51" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="63" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="60" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="40" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="61.5" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="60" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="39" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="57" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="49" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="36" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="43" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="44" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="49" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="60.1640625" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="44.1640625" bestFit="1" customWidth="1"/>
     <col min="272" max="272" width="49" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="60.1640625" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="49" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="40" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="50" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="40" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="50" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="48.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:296" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2489,19 +2454,19 @@
         <v>75</v>
       </c>
       <c r="BY1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="CD1" s="1" t="s">
         <v>80</v>
@@ -2630,25 +2595,25 @@
         <v>121</v>
       </c>
       <c r="DT1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="DU1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="EA1" s="1" t="s">
         <v>128</v>
@@ -2660,25 +2625,25 @@
         <v>130</v>
       </c>
       <c r="ED1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="EE1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="EK1" s="1" t="s">
         <v>137</v>
@@ -2738,64 +2703,64 @@
         <v>155</v>
       </c>
       <c r="FD1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="FE1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FG1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="FH1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FI1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="FJ1" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="FK1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="FL1" s="1" t="s">
+      <c r="FR1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="FM1" s="1" t="s">
+      <c r="FS1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="FN1" s="1" t="s">
+      <c r="FT1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="FO1" s="1" t="s">
+      <c r="FU1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="FP1" s="1" t="s">
+      <c r="FV1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="FQ1" s="1" t="s">
+      <c r="FW1" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="FX1" s="1" t="s">
         <v>169</v>
@@ -2825,28 +2790,28 @@
         <v>177</v>
       </c>
       <c r="GG1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="GH1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="GH1" s="1" t="s">
+      <c r="GI1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="GI1" s="1" t="s">
+      <c r="GJ1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="GJ1" s="1" t="s">
+      <c r="GK1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="GK1" s="1" t="s">
+      <c r="GL1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="GL1" s="1" t="s">
+      <c r="GM1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="GM1" s="1" t="s">
+      <c r="GN1" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="GO1" s="1" t="s">
         <v>185</v>
@@ -2864,315 +2829,291 @@
         <v>189</v>
       </c>
       <c r="GT1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="GX1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="GU1" s="1" t="s">
+      <c r="GY1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="GV1" s="1" t="s">
+      <c r="GZ1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="GW1" s="1" t="s">
+      <c r="HA1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="GX1" s="1" t="s">
+      <c r="HB1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="GY1" s="1" t="s">
+      <c r="HC1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="GZ1" s="1" t="s">
+      <c r="HD1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="HA1" s="1" t="s">
+      <c r="HE1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="HB1" s="1" t="s">
+      <c r="HF1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="HC1" s="1" t="s">
+      <c r="HG1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="HD1" s="1" t="s">
+      <c r="HH1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="HE1" s="1" t="s">
+      <c r="HI1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="HF1" s="1" t="s">
+      <c r="HJ1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="HG1" s="1" t="s">
+      <c r="HK1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="HH1" s="1" t="s">
+      <c r="HL1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="HI1" s="1" t="s">
+      <c r="HM1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="HJ1" s="1" t="s">
+      <c r="HN1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="HK1" s="1" t="s">
+      <c r="HO1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="HL1" s="1" t="s">
+      <c r="HP1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="HM1" s="1" t="s">
+      <c r="HQ1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="HT1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="HN1" s="1" t="s">
+      <c r="HU1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="HO1" s="1" t="s">
+      <c r="HV1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="HP1" s="1" t="s">
+      <c r="HW1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="HQ1" s="1" t="s">
+      <c r="HX1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="HR1" s="1" t="s">
+      <c r="HY1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="HS1" s="1" t="s">
+      <c r="HZ1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="HT1" s="1" t="s">
+      <c r="IA1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="HU1" s="1" t="s">
+      <c r="IB1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="HV1" s="1" t="s">
+      <c r="IC1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="HW1" s="1" t="s">
+      <c r="ID1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="HX1" s="1" t="s">
+      <c r="IE1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="HY1" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="IA1" s="1" t="s">
+      <c r="IF1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="JD1" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="IB1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="IV1" s="1" t="s">
+      <c r="JE1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="JF1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="IW1" s="1" t="s">
+      <c r="JG1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="IX1" s="1" t="s">
+      <c r="JH1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="IY1" s="1" t="s">
+      <c r="JI1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="IZ1" s="1" t="s">
+      <c r="JJ1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="JA1" s="1" t="s">
+      <c r="JK1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="JB1" s="1" t="s">
+      <c r="JL1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="JC1" s="1" t="s">
+      <c r="JM1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="JD1" s="1" t="s">
+      <c r="JN1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="JE1" s="1" t="s">
+      <c r="JO1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="JF1" s="1" t="s">
+      <c r="JP1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="JG1" s="1" t="s">
+      <c r="JQ1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="JH1" s="1" t="s">
+      <c r="JR1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="JI1" s="1" t="s">
+      <c r="JS1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="JJ1" s="1" t="s">
+      <c r="JT1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="JK1" s="1" t="s">
+      <c r="JU1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="JL1" s="1" t="s">
+      <c r="JV1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="JM1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="JN1" s="1" t="s">
+      <c r="JW1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="JX1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="JO1" s="1" t="s">
+      <c r="JY1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="JP1" s="1" t="s">
+      <c r="JZ1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="JQ1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JS1" s="1" t="s">
+      <c r="KA1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:288" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" t="s">
         <v>263</v>
       </c>
-      <c r="JT1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JU1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JV1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JW1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JX1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JY1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JZ1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="KA1" s="1" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G2" t="s">
         <v>271</v>
       </c>
-      <c r="KB1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="KC1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="KD1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="KE1" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="KF1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="KG1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="KH1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="KI1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="KJ1" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="2" spans="1:296" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F2" t="s">
-        <v>349</v>
-      </c>
-      <c r="G2" t="s">
-        <v>288</v>
-      </c>
       <c r="H2" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -3183,50 +3124,50 @@
       <c r="Q2" t="b">
         <v>1</v>
       </c>
-      <c r="GM2">
-        <f t="shared" ref="GM2:GM7" si="0">GN2</f>
+      <c r="GF2">
+        <f t="shared" ref="GF2:GF7" si="0">GG2</f>
         <v>2017</v>
       </c>
-      <c r="GN2">
+      <c r="GG2">
         <v>2017</v>
       </c>
-      <c r="GO2" t="s">
-        <v>418</v>
-      </c>
-      <c r="GQ2">
+      <c r="GH2" t="s">
+        <v>401</v>
+      </c>
+      <c r="GJ2">
         <v>1614</v>
       </c>
-      <c r="GR2">
-        <v>1</v>
-      </c>
-      <c r="GS2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:296" x14ac:dyDescent="0.2">
+      <c r="GK2">
+        <v>1</v>
+      </c>
+      <c r="GL2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="F3" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G3" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="H3" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -3237,47 +3178,47 @@
       <c r="Q3" t="b">
         <v>1</v>
       </c>
-      <c r="GM3">
+      <c r="GF3">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="GN3">
+      <c r="GG3">
         <v>2019</v>
       </c>
-      <c r="GO3" t="s">
-        <v>471</v>
-      </c>
-      <c r="GQ3">
+      <c r="GH3" t="s">
+        <v>453</v>
+      </c>
+      <c r="GJ3">
         <v>1860</v>
       </c>
-      <c r="JO3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:296" x14ac:dyDescent="0.2">
+      <c r="JG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="F4" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G4" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="H4" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -3288,56 +3229,56 @@
       <c r="Q4" t="b">
         <v>1</v>
       </c>
-      <c r="GM4">
+      <c r="GF4">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="GN4">
+      <c r="GG4">
         <v>2018</v>
       </c>
-      <c r="GQ4">
+      <c r="GJ4">
         <v>521</v>
       </c>
-      <c r="JH4">
-        <v>1</v>
-      </c>
-      <c r="JI4">
-        <v>0</v>
-      </c>
-      <c r="JJ4">
-        <v>0</v>
-      </c>
-      <c r="JK4">
-        <v>0</v>
-      </c>
-      <c r="JL4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:296" x14ac:dyDescent="0.2">
+      <c r="IZ4">
+        <v>1</v>
+      </c>
+      <c r="JA4">
+        <v>0</v>
+      </c>
+      <c r="JB4">
+        <v>0</v>
+      </c>
+      <c r="JC4">
+        <v>0</v>
+      </c>
+      <c r="JD4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="G5" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="H5" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -3351,47 +3292,47 @@
       <c r="AJ5" t="b">
         <v>1</v>
       </c>
-      <c r="GM5">
+      <c r="GF5">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="GN5">
+      <c r="GG5">
         <v>2018</v>
       </c>
-      <c r="JT5">
-        <v>0</v>
-      </c>
-      <c r="JU5">
-        <v>1</v>
-      </c>
-      <c r="JV5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:296" x14ac:dyDescent="0.2">
+      <c r="JL5">
+        <v>0</v>
+      </c>
+      <c r="JM5">
+        <v>1</v>
+      </c>
+      <c r="JN5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F6" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G6" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -3402,59 +3343,56 @@
       <c r="Q6" t="b">
         <v>1</v>
       </c>
-      <c r="GM6">
+      <c r="GF6">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="GN6">
+      <c r="GG6">
         <v>2017</v>
       </c>
-      <c r="GO6" t="s">
-        <v>427</v>
-      </c>
-      <c r="GQ6">
+      <c r="GH6" t="s">
+        <v>410</v>
+      </c>
+      <c r="GJ6">
         <v>89</v>
       </c>
-      <c r="HA6" t="s">
-        <v>428</v>
-      </c>
-      <c r="HB6">
-        <v>1</v>
-      </c>
-      <c r="HC6">
-        <v>0</v>
-      </c>
-      <c r="HD6">
-        <v>1</v>
-      </c>
-      <c r="HE6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:296" x14ac:dyDescent="0.2">
+      <c r="GT6">
+        <v>1</v>
+      </c>
+      <c r="GU6">
+        <v>0</v>
+      </c>
+      <c r="GV6">
+        <v>1</v>
+      </c>
+      <c r="GW6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="B7" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="F7" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G7" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="H7" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -3465,94 +3403,94 @@
       <c r="Q7" t="b">
         <v>1</v>
       </c>
-      <c r="GM7">
+      <c r="GF7">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="GN7">
+      <c r="GG7">
         <v>2018</v>
       </c>
-      <c r="GQ7">
+      <c r="GJ7">
         <v>1205</v>
       </c>
+      <c r="IC7">
+        <v>1</v>
+      </c>
+      <c r="ID7">
+        <v>1</v>
+      </c>
+      <c r="IE7">
+        <v>0</v>
+      </c>
+      <c r="IF7">
+        <v>1</v>
+      </c>
+      <c r="IG7">
+        <v>0</v>
+      </c>
+      <c r="IH7">
+        <v>1</v>
+      </c>
+      <c r="II7">
+        <v>1</v>
+      </c>
+      <c r="IJ7">
+        <v>1</v>
+      </c>
       <c r="IK7">
         <v>1</v>
       </c>
       <c r="IL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN7">
-        <v>1</v>
-      </c>
-      <c r="IO7">
-        <v>0</v>
-      </c>
-      <c r="IP7">
-        <v>1</v>
-      </c>
-      <c r="IQ7">
-        <v>1</v>
-      </c>
-      <c r="IR7">
-        <v>1</v>
-      </c>
-      <c r="IS7">
-        <v>1</v>
-      </c>
-      <c r="IT7">
-        <v>0</v>
-      </c>
-      <c r="IU7">
-        <v>1</v>
-      </c>
-      <c r="IV7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:296" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="CH8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:296" x14ac:dyDescent="0.2">
+      <c r="CB8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F9" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G9" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -3566,44 +3504,44 @@
       <c r="W9" t="b">
         <v>0</v>
       </c>
-      <c r="GM9">
-        <f>GN9</f>
+      <c r="GF9">
+        <f>GG9</f>
         <v>2015</v>
       </c>
-      <c r="GN9">
+      <c r="GG9">
         <v>2015</v>
       </c>
-      <c r="HS9">
-        <v>1</v>
-      </c>
-      <c r="HT9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:296" x14ac:dyDescent="0.2">
+      <c r="HK9">
+        <v>1</v>
+      </c>
+      <c r="HL9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="F10" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="G10" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H10" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -3617,56 +3555,56 @@
       <c r="AD10">
         <v>1</v>
       </c>
-      <c r="AW10">
-        <v>1</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="CB10">
-        <v>0</v>
-      </c>
-      <c r="GM10">
-        <f>GN10</f>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="GF10">
+        <f>GG10</f>
         <v>2017</v>
       </c>
-      <c r="GN10">
+      <c r="GG10">
         <v>2017</v>
       </c>
-      <c r="GQ10">
+      <c r="GJ10">
         <v>1604</v>
       </c>
-      <c r="HW10">
-        <v>0</v>
-      </c>
-      <c r="HX10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:296" x14ac:dyDescent="0.2">
+      <c r="HO10">
+        <v>0</v>
+      </c>
+      <c r="HP10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" t="s">
         <v>292</v>
       </c>
-      <c r="F11" t="s">
-        <v>309</v>
-      </c>
       <c r="G11" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H11" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -3704,38 +3642,38 @@
       <c r="Z11">
         <v>0</v>
       </c>
-      <c r="GM11">
-        <f>GN11</f>
+      <c r="GF11">
+        <f>GG11</f>
         <v>2012</v>
       </c>
-      <c r="GN11">
+      <c r="GG11">
         <v>2012</v>
       </c>
     </row>
-    <row r="12" spans="1:296" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C12" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F12" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="G12" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="H12" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -3755,56 +3693,50 @@
       <c r="AJ12" t="b">
         <v>1</v>
       </c>
-      <c r="AT12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>1</v>
-      </c>
-      <c r="BC12">
-        <v>1</v>
-      </c>
-      <c r="BD12">
-        <v>1</v>
-      </c>
-      <c r="BE12">
-        <v>1</v>
-      </c>
-      <c r="GM12">
-        <f>GN12</f>
+      <c r="AR12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>1</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="GF12">
+        <f>GG12</f>
         <v>2011</v>
       </c>
-      <c r="GN12">
+      <c r="GG12">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:296" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F13" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="G13" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H13" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -3815,34 +3747,31 @@
       <c r="W13" t="b">
         <v>1</v>
       </c>
-      <c r="BB13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:296" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C14" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F14" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G14" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H14" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -3853,37 +3782,37 @@
       <c r="W14" t="b">
         <v>0</v>
       </c>
-      <c r="GQ14">
+      <c r="GJ14">
         <v>56</v>
       </c>
-      <c r="KC14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:296" x14ac:dyDescent="0.2">
+      <c r="JU14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C15" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F15" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G15" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="H15" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -3897,50 +3826,50 @@
       <c r="W15" t="b">
         <v>0</v>
       </c>
-      <c r="AW15">
-        <v>1</v>
-      </c>
-      <c r="GM15">
-        <f>GN15</f>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="GF15">
+        <f>GG15</f>
         <v>2015</v>
       </c>
-      <c r="GN15">
+      <c r="GG15">
         <v>2015</v>
       </c>
-      <c r="GO15" t="b">
-        <v>0</v>
-      </c>
-      <c r="HS15">
-        <v>1</v>
-      </c>
-      <c r="JG15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:296" x14ac:dyDescent="0.2">
+      <c r="GH15" t="b">
+        <v>0</v>
+      </c>
+      <c r="HK15">
+        <v>1</v>
+      </c>
+      <c r="IY15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" t="s">
         <v>280</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>296</v>
-      </c>
-      <c r="F16" t="s">
-        <v>297</v>
-      </c>
       <c r="G16" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H16" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -3958,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="AA16" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="AB16">
         <v>1</v>
@@ -3987,38 +3916,38 @@
       <c r="AJ16" t="b">
         <v>1</v>
       </c>
-      <c r="GM16">
-        <f>GN16</f>
+      <c r="GF16">
+        <f>GG16</f>
         <v>2011</v>
       </c>
-      <c r="GN16">
+      <c r="GG16">
         <v>2011</v>
       </c>
     </row>
-    <row r="17" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C17" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F17" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="G17" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H17" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -4032,31 +3961,31 @@
       <c r="AD17">
         <v>1</v>
       </c>
-      <c r="DF17">
-        <v>0</v>
-      </c>
-      <c r="GQ17">
+      <c r="CZ17">
+        <v>0</v>
+      </c>
+      <c r="GJ17">
         <v>329</v>
       </c>
-      <c r="HU17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:293" x14ac:dyDescent="0.2">
+      <c r="HM17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C18" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -4076,53 +4005,53 @@
       <c r="AD18">
         <v>1</v>
       </c>
-      <c r="AT18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV18">
-        <v>0</v>
-      </c>
-      <c r="BW18">
-        <v>1</v>
-      </c>
-      <c r="BX18">
-        <v>0</v>
-      </c>
-      <c r="BY18">
-        <v>1</v>
-      </c>
-      <c r="GM18">
-        <f>GN18</f>
+      <c r="AR18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR18">
+        <v>0</v>
+      </c>
+      <c r="BS18">
+        <v>1</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>1</v>
+      </c>
+      <c r="GF18">
+        <f>GG18</f>
         <v>2012</v>
       </c>
-      <c r="GN18">
+      <c r="GG18">
         <v>2012</v>
       </c>
     </row>
-    <row r="19" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C19" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" t="s">
         <v>292</v>
       </c>
-      <c r="F19" t="s">
-        <v>309</v>
-      </c>
       <c r="G19" t="s">
+        <v>276</v>
+      </c>
+      <c r="H19" t="s">
         <v>293</v>
-      </c>
-      <c r="H19" t="s">
-        <v>310</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -4140,22 +4069,40 @@
         <v>1</v>
       </c>
       <c r="AA19" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="AK19">
         <v>1</v>
       </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="DD19">
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="CX19">
+        <v>1</v>
+      </c>
+      <c r="DG19">
+        <v>1</v>
+      </c>
+      <c r="DH19">
+        <v>0</v>
+      </c>
+      <c r="DI19">
+        <v>1</v>
+      </c>
+      <c r="DJ19">
+        <v>1</v>
+      </c>
+      <c r="DK19">
+        <v>1</v>
+      </c>
+      <c r="DL19">
         <v>1</v>
       </c>
       <c r="DM19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO19">
         <v>1</v>
@@ -4163,56 +4110,38 @@
       <c r="DP19">
         <v>1</v>
       </c>
-      <c r="DQ19">
-        <v>1</v>
-      </c>
-      <c r="DR19">
-        <v>1</v>
-      </c>
-      <c r="DS19">
-        <v>0</v>
-      </c>
-      <c r="DT19">
-        <v>1</v>
-      </c>
-      <c r="DU19">
-        <v>1</v>
-      </c>
-      <c r="DV19">
-        <v>1</v>
-      </c>
-      <c r="GM19">
-        <f>GN19</f>
+      <c r="GF19">
+        <f>GG19</f>
         <v>2013</v>
       </c>
-      <c r="GN19">
+      <c r="GG19">
         <v>2013</v>
       </c>
     </row>
-    <row r="20" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="B20" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C20" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="F20" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="G20" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H20" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -4229,50 +4158,50 @@
       <c r="AD20">
         <v>0</v>
       </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="DE20">
-        <v>0</v>
-      </c>
-      <c r="GM20">
-        <f>GN20</f>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="CY20">
+        <v>0</v>
+      </c>
+      <c r="GF20">
+        <f>GG20</f>
         <v>2014</v>
       </c>
-      <c r="GN20">
+      <c r="GG20">
         <v>2014</v>
       </c>
-      <c r="GQ20">
+      <c r="GJ20">
         <v>1000</v>
       </c>
-      <c r="HO20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:293" x14ac:dyDescent="0.2">
+      <c r="HG20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B21" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C21" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F21" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="G21" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H21" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -4289,34 +4218,34 @@
       <c r="AD21">
         <v>1</v>
       </c>
-      <c r="DI21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:293" x14ac:dyDescent="0.2">
+      <c r="DC21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B22" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C22" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F22" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G22" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="H22" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -4328,45 +4257,45 @@
         <v>0</v>
       </c>
       <c r="AA22" t="s">
-        <v>369</v>
-      </c>
-      <c r="DW22">
-        <v>0</v>
-      </c>
-      <c r="DX22">
-        <v>1</v>
-      </c>
-      <c r="DY22">
-        <v>0</v>
-      </c>
-      <c r="DZ22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:293" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="DQ22">
+        <v>0</v>
+      </c>
+      <c r="DR22">
+        <v>1</v>
+      </c>
+      <c r="DS22">
+        <v>0</v>
+      </c>
+      <c r="DT22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="B23" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C23" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
+        <v>275</v>
+      </c>
+      <c r="F23" t="s">
         <v>292</v>
       </c>
-      <c r="F23" t="s">
-        <v>309</v>
-      </c>
       <c r="G23" t="s">
+        <v>276</v>
+      </c>
+      <c r="H23" t="s">
         <v>293</v>
-      </c>
-      <c r="H23" t="s">
-        <v>310</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -4381,55 +4310,55 @@
         <v>1</v>
       </c>
       <c r="AA23" t="s">
-        <v>311</v>
-      </c>
-      <c r="GM23">
-        <f>GN23</f>
+        <v>294</v>
+      </c>
+      <c r="GF23">
+        <f>GG23</f>
         <v>2013</v>
       </c>
-      <c r="GN23">
+      <c r="GG23">
         <v>2013</v>
       </c>
-      <c r="GQ23">
+      <c r="GJ23">
         <v>836</v>
       </c>
-      <c r="JC23">
-        <v>1</v>
-      </c>
-      <c r="JD23">
-        <v>1</v>
-      </c>
-      <c r="JE23">
-        <v>1</v>
-      </c>
-      <c r="JF23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:293" x14ac:dyDescent="0.2">
+      <c r="IU23">
+        <v>1</v>
+      </c>
+      <c r="IV23">
+        <v>1</v>
+      </c>
+      <c r="IW23">
+        <v>1</v>
+      </c>
+      <c r="IX23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="B24" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C24" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F24" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G24" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H24" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -4446,43 +4375,43 @@
       <c r="AJ24" t="b">
         <v>1</v>
       </c>
-      <c r="AT24" t="b">
-        <v>1</v>
-      </c>
-      <c r="CK24">
-        <v>1</v>
-      </c>
-      <c r="GM24">
+      <c r="AR24" t="b">
+        <v>1</v>
+      </c>
+      <c r="CE24">
+        <v>1</v>
+      </c>
+      <c r="GF24">
         <v>2012</v>
       </c>
-      <c r="GN24" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:293" x14ac:dyDescent="0.2">
+      <c r="GG24" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B25" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C25" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F25" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="G25" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H25" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -4499,44 +4428,44 @@
       <c r="AJ25" t="b">
         <v>0</v>
       </c>
-      <c r="AZ25">
-        <v>1</v>
-      </c>
-      <c r="BA25">
-        <v>0</v>
-      </c>
-      <c r="GM25">
-        <f>GN25</f>
+      <c r="AX25">
+        <v>1</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="GF25">
+        <f>GG25</f>
         <v>2011</v>
       </c>
-      <c r="GN25">
+      <c r="GG25">
         <v>2011</v>
       </c>
     </row>
-    <row r="26" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="B26" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C26" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F26" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G26" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H26" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -4553,136 +4482,136 @@
       <c r="AJ26" t="b">
         <v>0</v>
       </c>
-      <c r="AT26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
-      <c r="CU26">
+      <c r="AR26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="CO26">
+        <v>0</v>
+      </c>
+      <c r="EQ26">
+        <v>0</v>
+      </c>
+      <c r="ER26">
+        <v>1</v>
+      </c>
+      <c r="ES26">
+        <v>1</v>
+      </c>
+      <c r="ET26">
+        <v>1</v>
+      </c>
+      <c r="EU26">
+        <v>1</v>
+      </c>
+      <c r="EV26">
         <v>0</v>
       </c>
       <c r="EW26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY26">
         <v>1</v>
       </c>
       <c r="EZ26">
-        <v>1</v>
-      </c>
-      <c r="FA26">
-        <v>1</v>
-      </c>
-      <c r="FB26">
-        <v>0</v>
-      </c>
-      <c r="FC26">
-        <v>1</v>
-      </c>
-      <c r="FD26">
-        <v>0</v>
-      </c>
-      <c r="FE26">
-        <v>1</v>
-      </c>
-      <c r="FF26">
-        <v>0</v>
-      </c>
-      <c r="GM26">
-        <f>GN26</f>
+        <v>0</v>
+      </c>
+      <c r="GF26">
+        <f>GG26</f>
         <v>2014</v>
       </c>
-      <c r="GN26">
+      <c r="GG26">
         <v>2014</v>
       </c>
     </row>
-    <row r="27" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="B27" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C27" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="F27" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="G27" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H27" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="J27" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="R27" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="W27" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="AJ27" t="s">
-        <v>382</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>351</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>351</v>
-      </c>
-      <c r="GM27">
+        <v>365</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>334</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>334</v>
+      </c>
+      <c r="GF27">
         <v>2017</v>
       </c>
-      <c r="GN27" t="s">
-        <v>491</v>
-      </c>
-      <c r="GQ27" t="s">
-        <v>492</v>
-      </c>
-      <c r="KF27" t="s">
-        <v>380</v>
-      </c>
-      <c r="KG27" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="28" spans="1:293" x14ac:dyDescent="0.2">
+      <c r="GG27" t="s">
+        <v>473</v>
+      </c>
+      <c r="GJ27" t="s">
+        <v>474</v>
+      </c>
+      <c r="JX27" t="s">
+        <v>363</v>
+      </c>
+      <c r="JY27" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="B28" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C28" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F28" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="G28" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H28" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -4697,58 +4626,58 @@
         <v>1</v>
       </c>
       <c r="AA28" t="s">
+        <v>315</v>
+      </c>
+      <c r="AY28">
+        <v>1</v>
+      </c>
+      <c r="DA28">
+        <v>0</v>
+      </c>
+      <c r="GF28">
+        <f t="shared" ref="GF28:GF33" si="1">GG28</f>
+        <v>2018</v>
+      </c>
+      <c r="GG28">
+        <v>2018</v>
+      </c>
+      <c r="GJ28">
+        <v>1612</v>
+      </c>
+      <c r="HV28">
+        <v>0</v>
+      </c>
+      <c r="IA28">
+        <v>1</v>
+      </c>
+      <c r="IB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:285" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>331</v>
+      </c>
+      <c r="F29" t="s">
         <v>332</v>
       </c>
-      <c r="BA28">
-        <v>1</v>
-      </c>
-      <c r="DG28">
-        <v>0</v>
-      </c>
-      <c r="GM28">
-        <f t="shared" ref="GM28:GM33" si="1">GN28</f>
-        <v>2018</v>
-      </c>
-      <c r="GN28">
-        <v>2018</v>
-      </c>
-      <c r="GQ28">
-        <v>1612</v>
-      </c>
-      <c r="ID28">
-        <v>0</v>
-      </c>
-      <c r="II28">
-        <v>1</v>
-      </c>
-      <c r="IJ28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:293" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>347</v>
-      </c>
-      <c r="B29" t="s">
-        <v>291</v>
-      </c>
-      <c r="C29" t="s">
-        <v>280</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>348</v>
-      </c>
-      <c r="F29" t="s">
-        <v>349</v>
-      </c>
       <c r="G29" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H29" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -4757,7 +4686,7 @@
         <v>1800</v>
       </c>
       <c r="Q29" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="W29" t="b">
         <v>1</v>
@@ -4765,56 +4694,56 @@
       <c r="AJ29" t="b">
         <v>1</v>
       </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="CT29">
-        <v>1</v>
-      </c>
-      <c r="CU29">
-        <v>0</v>
-      </c>
-      <c r="CV29">
-        <v>0</v>
-      </c>
-      <c r="CW29">
-        <v>0</v>
-      </c>
-      <c r="CX29">
-        <v>0</v>
-      </c>
-      <c r="GM29">
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="CN29">
+        <v>1</v>
+      </c>
+      <c r="CO29">
+        <v>0</v>
+      </c>
+      <c r="CP29">
+        <v>0</v>
+      </c>
+      <c r="CQ29">
+        <v>0</v>
+      </c>
+      <c r="CR29">
+        <v>0</v>
+      </c>
+      <c r="GF29">
         <f t="shared" si="1"/>
         <v>2015</v>
       </c>
-      <c r="GN29">
+      <c r="GG29">
         <v>2015</v>
       </c>
     </row>
-    <row r="30" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C30" t="s">
+        <v>263</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F30" t="s">
         <v>280</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>296</v>
-      </c>
-      <c r="F30" t="s">
-        <v>297</v>
-      </c>
       <c r="G30" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H30" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -4832,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="AA30" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="AB30">
         <v>1</v>
@@ -4852,38 +4781,38 @@
       <c r="AN30">
         <v>0</v>
       </c>
-      <c r="GM30">
+      <c r="GF30">
         <f t="shared" si="1"/>
         <v>2012</v>
       </c>
-      <c r="GN30">
+      <c r="GG30">
         <v>2012</v>
       </c>
     </row>
-    <row r="31" spans="1:293" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C31" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" t="s">
         <v>292</v>
       </c>
-      <c r="F31" t="s">
-        <v>309</v>
-      </c>
       <c r="G31" t="s">
+        <v>276</v>
+      </c>
+      <c r="H31" t="s">
         <v>293</v>
-      </c>
-      <c r="H31" t="s">
-        <v>310</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -4892,52 +4821,52 @@
         <v>1127</v>
       </c>
       <c r="AA31" t="s">
-        <v>311</v>
-      </c>
-      <c r="GM31">
+        <v>294</v>
+      </c>
+      <c r="GF31">
         <f t="shared" si="1"/>
         <v>2013</v>
       </c>
-      <c r="GN31">
+      <c r="GG31">
         <v>2013</v>
       </c>
-      <c r="GQ31">
+      <c r="GJ31">
         <v>800</v>
       </c>
-      <c r="HL31">
-        <v>1</v>
-      </c>
-      <c r="HM31">
-        <v>0</v>
-      </c>
-      <c r="HQ31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:293" x14ac:dyDescent="0.2">
+      <c r="HD31">
+        <v>1</v>
+      </c>
+      <c r="HE31">
+        <v>0</v>
+      </c>
+      <c r="HI31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:285" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="B32" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C32" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="F32" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="G32" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H32" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -4957,56 +4886,56 @@
       <c r="W32" t="b">
         <v>1</v>
       </c>
-      <c r="AT32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU32" t="b">
-        <v>1</v>
-      </c>
-      <c r="CU32">
-        <v>0</v>
-      </c>
-      <c r="GM32">
+      <c r="AR32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS32" t="b">
+        <v>1</v>
+      </c>
+      <c r="CO32">
+        <v>0</v>
+      </c>
+      <c r="GF32">
         <f t="shared" si="1"/>
         <v>2015</v>
       </c>
-      <c r="GN32">
+      <c r="GG32">
         <v>2015</v>
       </c>
-      <c r="GQ32">
+      <c r="GJ32">
         <v>592</v>
       </c>
-      <c r="HU32">
-        <v>1</v>
-      </c>
-      <c r="HV32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:238" x14ac:dyDescent="0.2">
+      <c r="HM32">
+        <v>1</v>
+      </c>
+      <c r="HN32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:230" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="B33" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C33" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="F33" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G33" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H33" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -5015,7 +4944,7 @@
         <v>1843</v>
       </c>
       <c r="Q33" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -5026,53 +4955,53 @@
       <c r="AL33">
         <v>0</v>
       </c>
-      <c r="DA33">
-        <v>0</v>
-      </c>
-      <c r="DB33">
-        <v>0</v>
-      </c>
-      <c r="DC33">
-        <v>0</v>
-      </c>
-      <c r="DD33">
-        <v>0</v>
-      </c>
-      <c r="DE33">
-        <v>0</v>
-      </c>
-      <c r="GM33">
+      <c r="CU33">
+        <v>0</v>
+      </c>
+      <c r="CV33">
+        <v>0</v>
+      </c>
+      <c r="CW33">
+        <v>0</v>
+      </c>
+      <c r="CX33">
+        <v>0</v>
+      </c>
+      <c r="CY33">
+        <v>0</v>
+      </c>
+      <c r="GF33">
         <f t="shared" si="1"/>
         <v>2015</v>
       </c>
-      <c r="GN33">
+      <c r="GG33">
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:238" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:230" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="B34" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C34" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F34" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G34" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H34" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -5086,34 +5015,34 @@
       <c r="W34" t="b">
         <v>1</v>
       </c>
-      <c r="CI34">
-        <v>1</v>
-      </c>
-      <c r="CJ34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:238" x14ac:dyDescent="0.2">
+      <c r="CC34">
+        <v>1</v>
+      </c>
+      <c r="CD34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:230" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="B35" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C35" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F35" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G35" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -5124,49 +5053,49 @@
       <c r="W35" t="b">
         <v>0</v>
       </c>
-      <c r="HF35">
-        <v>0</v>
-      </c>
-      <c r="HG35">
-        <v>0</v>
-      </c>
-      <c r="HH35">
-        <v>0</v>
-      </c>
-      <c r="HI35">
-        <v>1</v>
-      </c>
-      <c r="HJ35">
-        <v>0</v>
-      </c>
-      <c r="HK35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:238" x14ac:dyDescent="0.2">
+      <c r="GX35">
+        <v>0</v>
+      </c>
+      <c r="GY35">
+        <v>0</v>
+      </c>
+      <c r="GZ35">
+        <v>0</v>
+      </c>
+      <c r="HA35">
+        <v>1</v>
+      </c>
+      <c r="HB35">
+        <v>0</v>
+      </c>
+      <c r="HC35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:230" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C36" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F36" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="G36" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H36" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -5181,55 +5110,55 @@
         <v>1</v>
       </c>
       <c r="AA36" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="AJ36" t="b">
         <v>1</v>
       </c>
-      <c r="AW36">
-        <v>1</v>
-      </c>
-      <c r="BA36">
-        <v>1</v>
-      </c>
-      <c r="CB36">
-        <v>1</v>
-      </c>
-      <c r="CC36">
-        <v>1</v>
-      </c>
-      <c r="GM36">
-        <f>GN36</f>
+      <c r="AU36">
+        <v>1</v>
+      </c>
+      <c r="AY36">
+        <v>1</v>
+      </c>
+      <c r="BX36">
+        <v>1</v>
+      </c>
+      <c r="BY36">
+        <v>1</v>
+      </c>
+      <c r="GF36">
+        <f>GG36</f>
         <v>2014</v>
       </c>
-      <c r="GN36">
+      <c r="GG36">
         <v>2014</v>
       </c>
     </row>
-    <row r="37" spans="1:238" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:230" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C37" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F37" t="s">
         <v>292</v>
       </c>
-      <c r="F37" t="s">
-        <v>309</v>
-      </c>
       <c r="G37" t="s">
+        <v>276</v>
+      </c>
+      <c r="H37" t="s">
         <v>293</v>
-      </c>
-      <c r="H37" t="s">
-        <v>310</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -5247,7 +5176,7 @@
         <v>1</v>
       </c>
       <c r="AA37" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="AE37">
         <v>1</v>
@@ -5255,47 +5184,47 @@
       <c r="AJ37" t="b">
         <v>1</v>
       </c>
-      <c r="BA37">
-        <v>1</v>
-      </c>
-      <c r="CL37">
-        <v>1</v>
-      </c>
-      <c r="GM37">
-        <f>GN37</f>
+      <c r="AY37">
+        <v>1</v>
+      </c>
+      <c r="CF37">
+        <v>1</v>
+      </c>
+      <c r="GF37">
+        <f>GG37</f>
         <v>2013</v>
       </c>
-      <c r="GN37">
+      <c r="GG37">
         <v>2013</v>
       </c>
-      <c r="ID37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:238" x14ac:dyDescent="0.2">
+      <c r="HV37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:230" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="B38" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C38" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F38" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G38" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="H38" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -5310,52 +5239,52 @@
         <v>1</v>
       </c>
       <c r="AA38" t="s">
-        <v>393</v>
-      </c>
-      <c r="BA38">
-        <v>0</v>
-      </c>
-      <c r="CB38">
-        <v>0</v>
-      </c>
-      <c r="FG38">
-        <v>0</v>
-      </c>
-      <c r="FH38">
-        <v>0</v>
-      </c>
-      <c r="GM38">
-        <f>GN38</f>
+        <v>376</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="BX38">
+        <v>0</v>
+      </c>
+      <c r="FA38">
+        <v>0</v>
+      </c>
+      <c r="FB38">
+        <v>0</v>
+      </c>
+      <c r="GF38">
+        <f>GG38</f>
         <v>2015</v>
       </c>
-      <c r="GN38">
+      <c r="GG38">
         <v>2015</v>
       </c>
     </row>
-    <row r="39" spans="1:238" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:230" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C39" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="F39" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G39" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H39" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
@@ -5379,67 +5308,67 @@
         <v>0</v>
       </c>
       <c r="AA39" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="GF39">
+        <f>GG39</f>
+        <v>2012</v>
+      </c>
+      <c r="GG39">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:230" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>326</v>
+      </c>
+      <c r="B40" t="s">
+        <v>274</v>
+      </c>
+      <c r="C40" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
         <v>307</v>
       </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>0</v>
-      </c>
-      <c r="AS39">
-        <v>0</v>
-      </c>
-      <c r="AT39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV39">
-        <v>0</v>
-      </c>
-      <c r="AW39">
-        <v>0</v>
-      </c>
-      <c r="GM39">
-        <f>GN39</f>
-        <v>2012</v>
-      </c>
-      <c r="GN39">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="40" spans="1:238" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>343</v>
-      </c>
-      <c r="B40" t="s">
-        <v>291</v>
-      </c>
-      <c r="C40" t="s">
-        <v>280</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>324</v>
-      </c>
       <c r="F40" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="G40" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H40" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -5453,96 +5382,96 @@
       <c r="AD40">
         <v>1</v>
       </c>
-      <c r="GM40">
+      <c r="GF40">
         <v>2010</v>
       </c>
-      <c r="GN40" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="41" spans="1:238" x14ac:dyDescent="0.2">
+      <c r="GG40" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="41" spans="1:230" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="B41" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C41" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="CE41">
-        <v>1</v>
-      </c>
-      <c r="FQ41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:238" x14ac:dyDescent="0.2">
+      <c r="CA41">
+        <v>1</v>
+      </c>
+      <c r="CB41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:230" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C42" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:238" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:230" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C43" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="CE43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:238" x14ac:dyDescent="0.2">
+      <c r="CA43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:230" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C44" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="BZ44">
+      <c r="BV44">
+        <v>1</v>
+      </c>
+      <c r="BW44">
         <v>1</v>
       </c>
       <c r="CA44">
         <v>1</v>
       </c>
-      <c r="CE44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:238" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:230" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C45" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -5550,85 +5479,79 @@
       <c r="AO45">
         <v>1</v>
       </c>
-      <c r="AP45">
-        <v>1</v>
-      </c>
-      <c r="AQ45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:238" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:230" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C46" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="F46" t="s">
+        <v>332</v>
+      </c>
+      <c r="G46" t="s">
+        <v>276</v>
+      </c>
+      <c r="H46" t="s">
         <v>349</v>
-      </c>
-      <c r="G46" t="s">
-        <v>293</v>
-      </c>
-      <c r="H46" t="s">
-        <v>366</v>
       </c>
       <c r="J46">
         <v>1800</v>
       </c>
       <c r="Q46" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="W46" t="b">
         <v>1</v>
       </c>
-      <c r="DK46">
-        <v>1</v>
-      </c>
-      <c r="DL46">
-        <v>0</v>
-      </c>
-      <c r="GM46">
-        <f t="shared" ref="GM46:GM52" si="2">GN46</f>
+      <c r="DE46">
+        <v>1</v>
+      </c>
+      <c r="DF46">
+        <v>0</v>
+      </c>
+      <c r="GF46">
+        <f t="shared" ref="GF46:GF52" si="2">GG46</f>
         <v>2015</v>
       </c>
-      <c r="GN46">
+      <c r="GG46">
         <v>2015</v>
       </c>
     </row>
-    <row r="47" spans="1:238" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:230" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B47" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C47" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F47" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="G47" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H47" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -5639,44 +5562,38 @@
       <c r="Q47" t="b">
         <v>1</v>
       </c>
-      <c r="CF47">
-        <v>1</v>
-      </c>
-      <c r="CG47">
-        <v>1</v>
-      </c>
-      <c r="GM47">
+      <c r="GF47">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="GN47">
+      <c r="GG47">
         <v>2014</v>
       </c>
     </row>
-    <row r="48" spans="1:238" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:230" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B48" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C48" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="F48" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G48" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H48" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
@@ -5685,49 +5602,49 @@
         <v>1608</v>
       </c>
       <c r="Q48" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="W48" t="b">
         <v>1</v>
       </c>
-      <c r="BA48">
-        <v>1</v>
-      </c>
-      <c r="DJ48">
-        <v>0</v>
-      </c>
-      <c r="GM48">
+      <c r="AY48">
+        <v>1</v>
+      </c>
+      <c r="DD48">
+        <v>0</v>
+      </c>
+      <c r="GF48">
         <f t="shared" si="2"/>
         <v>2015</v>
       </c>
-      <c r="GN48">
+      <c r="GG48">
         <v>2015</v>
       </c>
     </row>
-    <row r="49" spans="1:296" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C49" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="F49" t="s">
+        <v>332</v>
+      </c>
+      <c r="G49" t="s">
+        <v>276</v>
+      </c>
+      <c r="H49" t="s">
         <v>349</v>
-      </c>
-      <c r="G49" t="s">
-        <v>293</v>
-      </c>
-      <c r="H49" t="s">
-        <v>366</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
@@ -5738,13 +5655,31 @@
       <c r="Q49" t="b">
         <v>1</v>
       </c>
-      <c r="BA49">
-        <v>0</v>
-      </c>
-      <c r="CU49">
-        <v>0</v>
-      </c>
-      <c r="DR49">
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="CO49">
+        <v>0</v>
+      </c>
+      <c r="DL49">
+        <v>0</v>
+      </c>
+      <c r="EA49">
+        <v>0</v>
+      </c>
+      <c r="EB49">
+        <v>0</v>
+      </c>
+      <c r="EC49">
+        <v>0</v>
+      </c>
+      <c r="ED49">
+        <v>0</v>
+      </c>
+      <c r="EE49">
+        <v>1</v>
+      </c>
+      <c r="EF49">
         <v>0</v>
       </c>
       <c r="EG49">
@@ -5760,58 +5695,40 @@
         <v>0</v>
       </c>
       <c r="EK49">
-        <v>1</v>
-      </c>
-      <c r="EL49">
-        <v>0</v>
-      </c>
-      <c r="EM49">
-        <v>0</v>
-      </c>
-      <c r="EN49">
-        <v>0</v>
-      </c>
-      <c r="EO49">
-        <v>0</v>
-      </c>
-      <c r="EP49">
-        <v>0</v>
-      </c>
-      <c r="EQ49">
-        <v>0</v>
-      </c>
-      <c r="GM49">
+        <v>0</v>
+      </c>
+      <c r="GF49">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="GN49">
+      <c r="GG49">
         <v>2016</v>
       </c>
     </row>
-    <row r="50" spans="1:296" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C50" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="F50" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G50" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H50" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
@@ -5822,41 +5739,41 @@
       <c r="Q50" t="b">
         <v>1</v>
       </c>
-      <c r="FP50">
-        <v>1</v>
-      </c>
-      <c r="GM50">
+      <c r="FJ50">
+        <v>1</v>
+      </c>
+      <c r="GF50">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="GN50">
+      <c r="GG50">
         <v>2016</v>
       </c>
     </row>
-    <row r="51" spans="1:296" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="B51" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C51" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F51" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="G51" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H51" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -5864,41 +5781,41 @@
       <c r="J51">
         <v>1225</v>
       </c>
-      <c r="DH51">
-        <v>1</v>
-      </c>
-      <c r="GM51">
+      <c r="DB51">
+        <v>1</v>
+      </c>
+      <c r="GF51">
         <f t="shared" si="2"/>
         <v>2013</v>
       </c>
-      <c r="GN51">
+      <c r="GG51">
         <v>2013</v>
       </c>
     </row>
-    <row r="52" spans="1:296" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="B52" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C52" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F52" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G52" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H52" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="J52">
         <v>1317</v>
@@ -5906,70 +5823,70 @@
       <c r="Q52" t="b">
         <v>1</v>
       </c>
-      <c r="GM52">
+      <c r="GF52">
         <f t="shared" si="2"/>
         <v>2015</v>
       </c>
-      <c r="GN52">
+      <c r="GG52">
         <v>2015</v>
       </c>
-      <c r="GO52" t="s">
-        <v>413</v>
-      </c>
-      <c r="GQ52">
+      <c r="GH52" t="s">
+        <v>396</v>
+      </c>
+      <c r="GJ52">
         <v>303</v>
       </c>
-      <c r="JM52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:296" x14ac:dyDescent="0.2">
+      <c r="JE52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C53" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="H53" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="J53">
         <v>30</v>
       </c>
-      <c r="EF53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:296" x14ac:dyDescent="0.2">
+      <c r="DZ53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="B54" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C54" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="G54" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="H54" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
@@ -5992,38 +5909,38 @@
       <c r="P54">
         <v>1</v>
       </c>
-      <c r="GM54">
-        <f>GN54</f>
+      <c r="GF54">
+        <f>GG54</f>
         <v>2007</v>
       </c>
-      <c r="GN54">
+      <c r="GG54">
         <v>2007</v>
       </c>
     </row>
-    <row r="55" spans="1:296" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="B55" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C55" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F55" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="G55" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H55" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -6034,50 +5951,50 @@
       <c r="Q55" t="b">
         <v>1</v>
       </c>
-      <c r="GM55">
-        <f>GN55</f>
+      <c r="GF55">
+        <f>GG55</f>
         <v>2018</v>
       </c>
-      <c r="GN55">
+      <c r="GG55">
         <v>2018</v>
       </c>
-      <c r="GQ55">
+      <c r="GJ55">
         <v>1721</v>
       </c>
-      <c r="KH55">
-        <v>0</v>
-      </c>
-      <c r="KI55">
-        <v>1</v>
-      </c>
-      <c r="KJ55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:296" x14ac:dyDescent="0.2">
+      <c r="JZ55">
+        <v>0</v>
+      </c>
+      <c r="KA55">
+        <v>1</v>
+      </c>
+      <c r="KB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="B56" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C56" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>279</v>
+      </c>
+      <c r="F56" t="s">
         <v>280</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>296</v>
-      </c>
-      <c r="F56" t="s">
-        <v>297</v>
-      </c>
       <c r="G56" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H56" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
@@ -6095,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="AA56" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="AB56">
         <v>0</v>
@@ -6103,58 +6020,58 @@
       <c r="AD56">
         <v>1</v>
       </c>
-      <c r="CB56">
-        <v>0</v>
+      <c r="BX56">
+        <v>0</v>
+      </c>
+      <c r="EF56">
+        <v>1</v>
       </c>
       <c r="EL56">
         <v>1</v>
       </c>
-      <c r="ER56">
-        <v>1</v>
-      </c>
-      <c r="ES56">
-        <v>1</v>
-      </c>
-      <c r="ET56">
-        <v>0</v>
-      </c>
-      <c r="EU56">
-        <v>1</v>
-      </c>
-      <c r="EV56">
-        <v>1</v>
-      </c>
-      <c r="GM56">
+      <c r="EM56">
+        <v>1</v>
+      </c>
+      <c r="EN56">
+        <v>0</v>
+      </c>
+      <c r="EO56">
+        <v>1</v>
+      </c>
+      <c r="EP56">
+        <v>1</v>
+      </c>
+      <c r="GF56">
         <v>2016</v>
       </c>
-      <c r="GN56" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="57" spans="1:296" x14ac:dyDescent="0.2">
+      <c r="GG56" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="57" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B57" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C57" t="s">
+        <v>263</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>279</v>
+      </c>
+      <c r="F57" t="s">
         <v>280</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>296</v>
-      </c>
-      <c r="F57" t="s">
-        <v>297</v>
-      </c>
       <c r="G57" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H57" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -6163,97 +6080,97 @@
         <v>2032</v>
       </c>
       <c r="AA57" t="s">
-        <v>299</v>
-      </c>
-      <c r="CM57" t="s">
-        <v>346</v>
-      </c>
-      <c r="CN57">
-        <v>0</v>
-      </c>
-      <c r="CO57">
-        <v>1</v>
-      </c>
-      <c r="GM57">
-        <f t="shared" ref="GM57:GM62" si="3">GN57</f>
+        <v>282</v>
+      </c>
+      <c r="CG57" t="s">
+        <v>329</v>
+      </c>
+      <c r="CH57">
+        <v>0</v>
+      </c>
+      <c r="CI57">
+        <v>1</v>
+      </c>
+      <c r="GF57">
+        <f t="shared" ref="GF57:GF62" si="3">GG57</f>
         <v>2013</v>
       </c>
-      <c r="GN57">
+      <c r="GG57">
         <v>2013</v>
       </c>
     </row>
-    <row r="58" spans="1:296" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="B58" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C58" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F58" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="G58" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H58" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="I58" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="J58" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="Q58" t="b">
         <v>1</v>
       </c>
-      <c r="ED58" t="s">
-        <v>382</v>
-      </c>
-      <c r="EE58" t="s">
-        <v>382</v>
-      </c>
-      <c r="GM58">
+      <c r="DX58" t="s">
+        <v>365</v>
+      </c>
+      <c r="DY58" t="s">
+        <v>365</v>
+      </c>
+      <c r="GF58">
         <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="GN58">
+      <c r="GG58">
         <v>2017</v>
       </c>
     </row>
-    <row r="59" spans="1:296" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B59" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C59" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
+        <v>275</v>
+      </c>
+      <c r="F59" t="s">
         <v>292</v>
       </c>
-      <c r="F59" t="s">
-        <v>309</v>
-      </c>
       <c r="G59" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H59" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -6265,16 +6182,28 @@
         <v>1</v>
       </c>
       <c r="AA59" t="s">
-        <v>311</v>
-      </c>
-      <c r="AW59">
+        <v>294</v>
+      </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
+      <c r="BB59">
+        <v>1</v>
+      </c>
+      <c r="BC59">
+        <v>1</v>
+      </c>
+      <c r="BD59">
+        <v>1</v>
+      </c>
+      <c r="BE59">
         <v>0</v>
       </c>
       <c r="BF59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH59">
         <v>1</v>
@@ -6288,50 +6217,38 @@
       <c r="BK59">
         <v>0</v>
       </c>
-      <c r="BL59">
-        <v>1</v>
-      </c>
-      <c r="BM59">
-        <v>0</v>
-      </c>
-      <c r="BN59">
-        <v>0</v>
-      </c>
-      <c r="BO59">
-        <v>0</v>
-      </c>
-      <c r="GM59">
+      <c r="GF59">
         <f t="shared" si="3"/>
         <v>2013</v>
       </c>
-      <c r="GN59">
+      <c r="GG59">
         <v>2013</v>
       </c>
     </row>
-    <row r="60" spans="1:296" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="B60" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C60" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="F60" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="G60" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H60" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -6348,44 +6265,44 @@
       <c r="AD60">
         <v>1</v>
       </c>
-      <c r="GM60">
+      <c r="GF60">
         <f t="shared" si="3"/>
         <v>2016</v>
       </c>
-      <c r="GN60">
+      <c r="GG60">
         <v>2016</v>
       </c>
-      <c r="GO60" t="s">
-        <v>413</v>
-      </c>
-      <c r="GP60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:296" x14ac:dyDescent="0.2">
+      <c r="GH60" t="s">
+        <v>396</v>
+      </c>
+      <c r="GI60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="B61" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C61" t="s">
+        <v>263</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>279</v>
+      </c>
+      <c r="F61" t="s">
         <v>280</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
-        <v>296</v>
-      </c>
-      <c r="F61" t="s">
-        <v>297</v>
-      </c>
       <c r="G61" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="H61" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -6400,109 +6317,109 @@
         <v>1</v>
       </c>
       <c r="AA61" t="s">
-        <v>299</v>
-      </c>
-      <c r="BF61">
-        <v>1</v>
-      </c>
-      <c r="BG61">
-        <v>1</v>
-      </c>
-      <c r="BH61">
-        <v>1</v>
+        <v>282</v>
+      </c>
+      <c r="BB61">
+        <v>1</v>
+      </c>
+      <c r="BC61">
+        <v>1</v>
+      </c>
+      <c r="BD61">
+        <v>1</v>
+      </c>
+      <c r="BL61">
+        <v>0</v>
+      </c>
+      <c r="BM61">
+        <v>1</v>
+      </c>
+      <c r="BN61">
+        <v>1</v>
+      </c>
+      <c r="BO61">
+        <v>0</v>
       </c>
       <c r="BP61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ61">
         <v>1</v>
       </c>
-      <c r="BR61">
-        <v>1</v>
-      </c>
-      <c r="BS61">
-        <v>0</v>
-      </c>
-      <c r="BT61">
-        <v>1</v>
-      </c>
-      <c r="BU61">
-        <v>1</v>
-      </c>
-      <c r="GM61">
+      <c r="GF61">
         <f t="shared" si="3"/>
         <v>2013</v>
       </c>
-      <c r="GN61">
+      <c r="GG61">
         <v>2013</v>
       </c>
     </row>
-    <row r="62" spans="1:296" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="B62" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C62" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
+        <v>275</v>
+      </c>
+      <c r="F62" t="s">
         <v>292</v>
       </c>
-      <c r="F62" t="s">
-        <v>309</v>
-      </c>
       <c r="G62" t="s">
+        <v>276</v>
+      </c>
+      <c r="H62" t="s">
         <v>293</v>
-      </c>
-      <c r="H62" t="s">
-        <v>310</v>
       </c>
       <c r="J62">
         <v>3807</v>
       </c>
       <c r="AA62" t="s">
-        <v>311</v>
-      </c>
-      <c r="GL62">
-        <v>1</v>
-      </c>
-      <c r="GM62">
+        <v>294</v>
+      </c>
+      <c r="GE62">
+        <v>1</v>
+      </c>
+      <c r="GF62">
         <f t="shared" si="3"/>
         <v>2015</v>
       </c>
-      <c r="GN62">
+      <c r="GG62">
         <v>2015</v>
       </c>
     </row>
-    <row r="63" spans="1:296" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B63" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C63" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F63" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G63" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="H63" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -6510,61 +6427,61 @@
       <c r="J63">
         <v>62</v>
       </c>
+      <c r="FR63">
+        <v>1</v>
+      </c>
+      <c r="FS63">
+        <v>1</v>
+      </c>
+      <c r="FT63">
+        <v>1</v>
+      </c>
+      <c r="FU63">
+        <v>0</v>
+      </c>
+      <c r="FV63">
+        <v>0</v>
+      </c>
+      <c r="FW63">
+        <v>0</v>
+      </c>
+      <c r="FX63">
+        <v>0</v>
+      </c>
       <c r="FY63">
         <v>1</v>
       </c>
       <c r="FZ63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB63">
-        <v>0</v>
-      </c>
-      <c r="GC63">
-        <v>0</v>
-      </c>
-      <c r="GD63">
-        <v>0</v>
-      </c>
-      <c r="GE63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF63">
-        <v>1</v>
-      </c>
-      <c r="GG63">
-        <v>0</v>
-      </c>
-      <c r="GH63">
-        <v>0</v>
-      </c>
-      <c r="GI63">
-        <v>1</v>
-      </c>
-      <c r="GM63">
         <v>2016</v>
       </c>
-      <c r="GN63" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="64" spans="1:296" x14ac:dyDescent="0.2">
+      <c r="GG63" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="64" spans="1:288" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="B64" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C64" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -6572,38 +6489,38 @@
       <c r="J64">
         <v>2221</v>
       </c>
-      <c r="GM64">
-        <f>GN64</f>
+      <c r="GF64">
+        <f>GG64</f>
         <v>2016</v>
       </c>
-      <c r="GN64">
+      <c r="GG64">
         <v>2016</v>
       </c>
-      <c r="GQ64">
+      <c r="GJ64">
         <v>717</v>
       </c>
-      <c r="HN64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:291" x14ac:dyDescent="0.2">
+      <c r="HF64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B65" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C65" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H65" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -6611,34 +6528,34 @@
       <c r="J65">
         <v>1998</v>
       </c>
-      <c r="EA65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:291" x14ac:dyDescent="0.2">
+      <c r="DU65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="B66" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C66" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="F66" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G66" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H66" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="J66">
         <v>10467</v>
@@ -6646,49 +6563,49 @@
       <c r="Q66" t="b">
         <v>0</v>
       </c>
-      <c r="GM66">
+      <c r="GF66">
         <v>2015</v>
       </c>
-      <c r="GN66" t="s">
-        <v>477</v>
-      </c>
-      <c r="GO66" t="s">
-        <v>478</v>
-      </c>
-      <c r="GQ66">
+      <c r="GG66" t="s">
+        <v>459</v>
+      </c>
+      <c r="GH66" t="s">
+        <v>460</v>
+      </c>
+      <c r="GJ66">
         <v>3200</v>
       </c>
-      <c r="JR66">
-        <v>1</v>
-      </c>
-      <c r="JS66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:291" x14ac:dyDescent="0.2">
+      <c r="JJ66">
+        <v>1</v>
+      </c>
+      <c r="JK66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B67" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C67" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="F67" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="G67" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H67" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
@@ -6696,65 +6613,65 @@
       <c r="J67">
         <v>5077</v>
       </c>
-      <c r="BA67">
-        <v>1</v>
-      </c>
-      <c r="CU67">
-        <v>0</v>
-      </c>
-      <c r="FR67">
-        <v>1</v>
-      </c>
-      <c r="FS67">
-        <v>1</v>
-      </c>
-      <c r="FT67">
-        <v>0</v>
-      </c>
-      <c r="FU67">
-        <v>0</v>
-      </c>
-      <c r="FV67">
-        <v>0</v>
-      </c>
-      <c r="FW67">
-        <v>0</v>
-      </c>
-      <c r="FX67">
-        <v>1</v>
-      </c>
-      <c r="GM67">
-        <f>GN67</f>
+      <c r="AY67">
+        <v>1</v>
+      </c>
+      <c r="CO67">
+        <v>0</v>
+      </c>
+      <c r="FK67">
+        <v>1</v>
+      </c>
+      <c r="FL67">
+        <v>1</v>
+      </c>
+      <c r="FM67">
+        <v>0</v>
+      </c>
+      <c r="FN67">
+        <v>0</v>
+      </c>
+      <c r="FO67">
+        <v>0</v>
+      </c>
+      <c r="FP67">
+        <v>0</v>
+      </c>
+      <c r="FQ67">
+        <v>1</v>
+      </c>
+      <c r="GF67">
+        <f>GG67</f>
         <v>2014</v>
       </c>
-      <c r="GN67">
+      <c r="GG67">
         <v>2014</v>
       </c>
     </row>
-    <row r="68" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="B68" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C68" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="F68" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G68" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H68" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -6768,62 +6685,62 @@
       <c r="W68" t="b">
         <v>0</v>
       </c>
-      <c r="EH68">
-        <v>1</v>
+      <c r="EB68">
+        <v>1</v>
+      </c>
+      <c r="FC68">
+        <v>1</v>
+      </c>
+      <c r="FD68">
+        <v>1</v>
+      </c>
+      <c r="FE68">
+        <v>1</v>
+      </c>
+      <c r="FF68">
+        <v>0</v>
+      </c>
+      <c r="FG68">
+        <v>0</v>
+      </c>
+      <c r="FH68">
+        <v>0</v>
       </c>
       <c r="FI68">
-        <v>1</v>
-      </c>
-      <c r="FJ68">
-        <v>1</v>
-      </c>
-      <c r="FK68">
-        <v>1</v>
-      </c>
-      <c r="FL68">
-        <v>0</v>
-      </c>
-      <c r="FM68">
-        <v>0</v>
-      </c>
-      <c r="FN68">
-        <v>0</v>
-      </c>
-      <c r="FO68">
-        <v>0</v>
-      </c>
-      <c r="GM68">
-        <f>GN68</f>
+        <v>0</v>
+      </c>
+      <c r="GF68">
+        <f>GG68</f>
         <v>2016</v>
       </c>
-      <c r="GN68">
+      <c r="GG68">
         <v>2016</v>
       </c>
     </row>
-    <row r="69" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="B69" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C69" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="F69" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G69" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="H69" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="I69" t="b">
         <v>1</v>
@@ -6834,130 +6751,130 @@
       <c r="Q69" t="b">
         <v>1</v>
       </c>
-      <c r="GM69">
-        <f>GN69</f>
+      <c r="GF69">
+        <f>GG69</f>
         <v>2017</v>
       </c>
-      <c r="GN69">
+      <c r="GG69">
         <v>2017</v>
       </c>
-      <c r="GQ69">
+      <c r="GJ69">
         <v>1614</v>
       </c>
-      <c r="JW69">
-        <v>1</v>
-      </c>
-      <c r="JX69">
-        <v>1</v>
-      </c>
-      <c r="JY69">
-        <v>1</v>
-      </c>
-      <c r="JZ69">
-        <v>1</v>
-      </c>
-      <c r="KA69">
-        <v>1</v>
-      </c>
-      <c r="KB69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:291" x14ac:dyDescent="0.2">
+      <c r="JO69">
+        <v>1</v>
+      </c>
+      <c r="JP69">
+        <v>1</v>
+      </c>
+      <c r="JQ69">
+        <v>1</v>
+      </c>
+      <c r="JR69">
+        <v>1</v>
+      </c>
+      <c r="JS69">
+        <v>1</v>
+      </c>
+      <c r="JT69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="B70" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C70" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F70" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="G70" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H70" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="Q70" t="b">
         <v>1</v>
       </c>
-      <c r="GM70">
-        <f>GN70</f>
+      <c r="GF70">
+        <f>GG70</f>
         <v>2016</v>
       </c>
-      <c r="GN70">
+      <c r="GG70">
         <v>2016</v>
       </c>
+      <c r="GH70" t="s">
+        <v>405</v>
+      </c>
+      <c r="GJ70" t="s">
+        <v>406</v>
+      </c>
+      <c r="GM70" t="s">
+        <v>407</v>
+      </c>
+      <c r="GN70" t="s">
+        <v>407</v>
+      </c>
       <c r="GO70" t="s">
-        <v>422</v>
+        <v>407</v>
+      </c>
+      <c r="GP70" t="s">
+        <v>407</v>
       </c>
       <c r="GQ70" t="s">
-        <v>423</v>
-      </c>
-      <c r="GT70" t="s">
-        <v>424</v>
-      </c>
-      <c r="GU70" t="s">
-        <v>424</v>
-      </c>
-      <c r="GV70" t="s">
-        <v>424</v>
-      </c>
-      <c r="GW70" t="s">
-        <v>424</v>
-      </c>
-      <c r="GX70" t="s">
-        <v>425</v>
-      </c>
-      <c r="GY70" t="s">
-        <v>425</v>
-      </c>
-      <c r="GZ70" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="71" spans="1:291" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+      <c r="GR70" t="s">
+        <v>408</v>
+      </c>
+      <c r="GS70" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B71" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C71" t="s">
-        <v>334</v>
-      </c>
-      <c r="CD71">
-        <v>1</v>
-      </c>
-      <c r="CE71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:291" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="BZ71">
+        <v>1</v>
+      </c>
+      <c r="CA71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B72" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C72" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -6965,34 +6882,34 @@
       <c r="AO72">
         <v>1</v>
       </c>
-      <c r="CE72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:291" x14ac:dyDescent="0.2">
+      <c r="CA72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="B73" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C73" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F73" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="G73" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="H73" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
@@ -7004,51 +6921,51 @@
         <v>0</v>
       </c>
       <c r="AA73" t="s">
-        <v>332</v>
-      </c>
-      <c r="GM73">
+        <v>315</v>
+      </c>
+      <c r="GF73">
         <v>2014</v>
       </c>
-      <c r="GN73" t="s">
-        <v>437</v>
-      </c>
-      <c r="GQ73">
+      <c r="GG73" t="s">
+        <v>419</v>
+      </c>
+      <c r="GJ73">
         <v>702</v>
       </c>
-      <c r="HP73">
-        <v>1</v>
-      </c>
-      <c r="HQ73">
-        <v>1</v>
-      </c>
-      <c r="HR73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:291" x14ac:dyDescent="0.2">
+      <c r="HH73">
+        <v>1</v>
+      </c>
+      <c r="HI73">
+        <v>1</v>
+      </c>
+      <c r="HJ73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="B74" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C74" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F74" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="G74" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="H74" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
@@ -7059,59 +6976,59 @@
       <c r="K74">
         <v>1</v>
       </c>
-      <c r="GM74">
-        <f>GN74</f>
+      <c r="GF74">
+        <f>GG74</f>
         <v>2017</v>
       </c>
-      <c r="GN74">
+      <c r="GG74">
         <v>2017</v>
       </c>
-      <c r="HQ74">
-        <v>1</v>
-      </c>
-      <c r="IW74">
-        <v>1</v>
-      </c>
-      <c r="IX74">
-        <v>1</v>
-      </c>
-      <c r="IY74">
-        <v>0</v>
-      </c>
-      <c r="IZ74">
-        <v>1</v>
-      </c>
-      <c r="JA74">
-        <v>1</v>
-      </c>
-      <c r="JB74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:291" x14ac:dyDescent="0.2">
+      <c r="HI74">
+        <v>1</v>
+      </c>
+      <c r="IO74">
+        <v>1</v>
+      </c>
+      <c r="IP74">
+        <v>1</v>
+      </c>
+      <c r="IQ74">
+        <v>0</v>
+      </c>
+      <c r="IR74">
+        <v>1</v>
+      </c>
+      <c r="IS74">
+        <v>1</v>
+      </c>
+      <c r="IT74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="B75" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" t="s">
+        <v>263</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
         <v>279</v>
       </c>
-      <c r="C75" t="s">
+      <c r="F75" t="s">
         <v>280</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
-        <v>296</v>
-      </c>
-      <c r="F75" t="s">
-        <v>297</v>
-      </c>
       <c r="G75" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H75" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="I75" t="b">
         <v>0</v>
@@ -7129,58 +7046,58 @@
         <v>1</v>
       </c>
       <c r="AA75" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="AD75">
         <v>1</v>
       </c>
-      <c r="AT75" t="b">
-        <v>1</v>
-      </c>
-      <c r="CP75">
-        <v>1</v>
-      </c>
-      <c r="CQ75">
-        <v>1</v>
-      </c>
-      <c r="CR75">
-        <v>1</v>
-      </c>
-      <c r="CS75">
-        <v>1</v>
-      </c>
-      <c r="GM75">
-        <f>GN75</f>
+      <c r="AR75" t="b">
+        <v>1</v>
+      </c>
+      <c r="CJ75">
+        <v>1</v>
+      </c>
+      <c r="CK75">
+        <v>1</v>
+      </c>
+      <c r="CL75">
+        <v>1</v>
+      </c>
+      <c r="CM75">
+        <v>1</v>
+      </c>
+      <c r="GF75">
+        <f>GG75</f>
         <v>2014</v>
       </c>
-      <c r="GN75">
+      <c r="GG75">
         <v>2014</v>
       </c>
     </row>
-    <row r="76" spans="1:291" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="B76" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C76" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="F76" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G76" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H76" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
@@ -7188,37 +7105,37 @@
       <c r="J76">
         <v>6817</v>
       </c>
-      <c r="CY76">
-        <v>1</v>
-      </c>
-      <c r="CZ76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:291" x14ac:dyDescent="0.2">
+      <c r="CS76">
+        <v>1</v>
+      </c>
+      <c r="CT76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="B77" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C77" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F77" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G77" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H77" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="I77" t="b">
         <v>0</v>
@@ -7229,82 +7146,82 @@
       <c r="Q77" t="b">
         <v>1</v>
       </c>
-      <c r="GM77">
-        <f>GN77</f>
+      <c r="GF77">
+        <f>GG77</f>
         <v>2018</v>
       </c>
-      <c r="GN77">
+      <c r="GG77">
         <v>2018</v>
       </c>
-      <c r="GQ77">
+      <c r="GJ77">
         <v>6016</v>
       </c>
-      <c r="KD77">
-        <v>1</v>
-      </c>
-      <c r="KE77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:291" x14ac:dyDescent="0.2">
+      <c r="JV77">
+        <v>1</v>
+      </c>
+      <c r="JW77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B78" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C78" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="F78" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="R78" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="AD78">
         <v>1</v>
       </c>
-      <c r="AT78" t="s">
-        <v>376</v>
-      </c>
-      <c r="EB78" t="s">
-        <v>377</v>
-      </c>
-      <c r="EC78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:291" x14ac:dyDescent="0.2">
+      <c r="AR78" t="s">
+        <v>359</v>
+      </c>
+      <c r="DV78" t="s">
+        <v>360</v>
+      </c>
+      <c r="DW78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="B79" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C79" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="s">
+        <v>275</v>
+      </c>
+      <c r="F79" t="s">
         <v>292</v>
       </c>
-      <c r="F79" t="s">
-        <v>309</v>
-      </c>
       <c r="G79" t="s">
+        <v>276</v>
+      </c>
+      <c r="H79" t="s">
         <v>293</v>
-      </c>
-      <c r="H79" t="s">
-        <v>310</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
@@ -7319,80 +7236,80 @@
         <v>0</v>
       </c>
       <c r="AA79" t="s">
-        <v>311</v>
-      </c>
-      <c r="AS79">
-        <v>0</v>
-      </c>
-      <c r="AT79" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX79">
-        <v>1</v>
-      </c>
-      <c r="AY79">
-        <v>1</v>
-      </c>
-      <c r="GM79">
+        <v>294</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
+      <c r="AR79" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV79">
+        <v>1</v>
+      </c>
+      <c r="AW79">
+        <v>1</v>
+      </c>
+      <c r="GF79">
         <v>2012</v>
       </c>
-      <c r="GN79" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="80" spans="1:291" x14ac:dyDescent="0.2">
+      <c r="GG79" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="80" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="B80" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C80" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="F80" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="J80">
         <v>502410</v>
       </c>
       <c r="Q80" t="s">
-        <v>406</v>
-      </c>
-      <c r="GK80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:277" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+      <c r="GD80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="B81" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C81" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F81" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="G81" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H81" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -7406,34 +7323,34 @@
       <c r="T81">
         <v>0</v>
       </c>
-      <c r="AX81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:277" x14ac:dyDescent="0.2">
+      <c r="AV81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="B82" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C82" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="F82" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="G82" t="s">
+        <v>276</v>
+      </c>
+      <c r="H82" t="s">
         <v>293</v>
-      </c>
-      <c r="H82" t="s">
-        <v>310</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
@@ -7442,70 +7359,70 @@
         <v>3653</v>
       </c>
       <c r="Q82" t="s">
-        <v>351</v>
-      </c>
-      <c r="CB82">
-        <v>0</v>
-      </c>
-      <c r="CM82" t="s">
-        <v>449</v>
-      </c>
-      <c r="GM82">
-        <f>GN82</f>
+        <v>334</v>
+      </c>
+      <c r="BX82">
+        <v>0</v>
+      </c>
+      <c r="CG82" t="s">
+        <v>431</v>
+      </c>
+      <c r="GF82">
+        <f>GG82</f>
         <v>2017</v>
       </c>
-      <c r="GN82">
+      <c r="GG82">
         <v>2017</v>
       </c>
-      <c r="GO82" t="s">
-        <v>413</v>
-      </c>
-      <c r="GQ82">
+      <c r="GH82" t="s">
+        <v>396</v>
+      </c>
+      <c r="GJ82">
         <v>2898</v>
       </c>
-      <c r="HY82">
-        <v>1</v>
-      </c>
-      <c r="HZ82">
-        <v>0</v>
-      </c>
-      <c r="IA82">
-        <v>0</v>
-      </c>
-      <c r="IB82">
-        <v>1</v>
-      </c>
-      <c r="IC82">
-        <v>0</v>
-      </c>
-      <c r="ID82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:277" x14ac:dyDescent="0.2">
+      <c r="HQ82">
+        <v>1</v>
+      </c>
+      <c r="HR82">
+        <v>0</v>
+      </c>
+      <c r="HS82">
+        <v>0</v>
+      </c>
+      <c r="HT82">
+        <v>1</v>
+      </c>
+      <c r="HU82">
+        <v>0</v>
+      </c>
+      <c r="HV82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B83" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C83" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="F83" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="G83" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="H83" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
@@ -7516,37 +7433,37 @@
       <c r="K83">
         <v>1</v>
       </c>
-      <c r="GM83">
+      <c r="GF83">
         <v>2005</v>
       </c>
-      <c r="GN83" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="84" spans="1:277" x14ac:dyDescent="0.2">
+      <c r="GG83" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="84" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="B84" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C84" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F84" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="G84" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="H84" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
@@ -7557,47 +7474,47 @@
       <c r="Q84" t="b">
         <v>1</v>
       </c>
-      <c r="GM84">
-        <f>GN84</f>
+      <c r="GF84">
+        <f>GG84</f>
         <v>2017</v>
       </c>
-      <c r="GN84">
+      <c r="GG84">
         <v>2017</v>
       </c>
-      <c r="GQ84">
+      <c r="GJ84">
         <v>468</v>
       </c>
-      <c r="JP84">
-        <v>1</v>
-      </c>
-      <c r="JQ84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:277" x14ac:dyDescent="0.2">
+      <c r="JH84">
+        <v>1</v>
+      </c>
+      <c r="JI84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B85" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C85" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F85" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="G85" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="H85" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
@@ -7617,53 +7534,53 @@
       <c r="AD85">
         <v>1</v>
       </c>
-      <c r="AT85" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA85">
-        <v>1</v>
-      </c>
-      <c r="CB85">
-        <v>1</v>
-      </c>
-      <c r="DF85">
-        <v>0</v>
-      </c>
-      <c r="DG85">
-        <v>0</v>
-      </c>
-      <c r="GM85">
-        <f>GN85</f>
+      <c r="AR85" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY85">
+        <v>1</v>
+      </c>
+      <c r="BX85">
+        <v>1</v>
+      </c>
+      <c r="CZ85">
+        <v>0</v>
+      </c>
+      <c r="DA85">
+        <v>0</v>
+      </c>
+      <c r="GF85">
+        <f>GG85</f>
         <v>2014</v>
       </c>
-      <c r="GN85">
+      <c r="GG85">
         <v>2014</v>
       </c>
     </row>
-    <row r="86" spans="1:277" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="B86" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C86" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="F86" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="G86" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="H86" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
@@ -7671,52 +7588,52 @@
       <c r="J86">
         <v>1905</v>
       </c>
-      <c r="GM86">
-        <f>GN86</f>
+      <c r="GF86">
+        <f>GG86</f>
         <v>2016</v>
       </c>
-      <c r="GN86">
+      <c r="GG86">
         <v>2016</v>
       </c>
-      <c r="GQ86">
+      <c r="GJ86">
         <v>1379</v>
       </c>
-      <c r="IE86">
-        <v>0</v>
-      </c>
-      <c r="IF86">
-        <v>0</v>
-      </c>
-      <c r="IG86">
-        <v>0</v>
-      </c>
-      <c r="IH86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:277" x14ac:dyDescent="0.2">
+      <c r="HW86">
+        <v>0</v>
+      </c>
+      <c r="HX86">
+        <v>0</v>
+      </c>
+      <c r="HY86">
+        <v>0</v>
+      </c>
+      <c r="HZ86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="B87" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
-      <c r="BZ87">
-        <v>1</v>
-      </c>
-      <c r="GJ87">
+      <c r="BV87">
+        <v>1</v>
+      </c>
+      <c r="GC87">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:KJ87" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:KJ87">
+  <autoFilter ref="A1:KB87" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:KB87">
       <sortCondition ref="B1:B87"/>
     </sortState>
   </autoFilter>

--- a/data/raw/literature_coding_results.xlsx
+++ b/data/raw/literature_coding_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakob/PycharmProjects/Smartphone_Web_Surveys_A_Systematic_Literature_Review/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342E7C0E-A6F9-844A-B05D-690567E97733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CF8DCE-1FDB-6346-8D4D-FB98C160753C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$KB$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$JX$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="506">
   <si>
     <t>article_name</t>
   </si>
@@ -177,9 +177,6 @@
     <t>mobile_text_answer_avoid_more</t>
   </si>
   <si>
-    <t>online_participants_mobile_increasing</t>
-  </si>
-  <si>
     <t>mobile_participants_more_progressive</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>review_data_quality</t>
   </si>
   <si>
-    <t>online_participants_insights</t>
-  </si>
-  <si>
     <t>mobile_straightlining_more</t>
   </si>
   <si>
@@ -321,18 +315,9 @@
     <t>mobile_design_not_optimized_mobile_less_text_than_optimized</t>
   </si>
   <si>
-    <t>online_participants_increasing_usage_of_smartphone</t>
-  </si>
-  <si>
-    <t>online_participants_not_accepting_mobile_survey_older</t>
-  </si>
-  <si>
     <t>mobile_participants_more_stranger_present</t>
   </si>
   <si>
-    <t>mobile_participants_sensitivity_perceived_higher</t>
-  </si>
-  <si>
     <t>mobile_sensitive_questions_more_uneasy</t>
   </si>
   <si>
@@ -381,9 +366,6 @@
     <t>mobile_non_differentiated_answers_more</t>
   </si>
   <si>
-    <t>mobile_more_socially_undesirables_anwsers</t>
-  </si>
-  <si>
     <t>mobile_design_slider_anwser_less_accurate</t>
   </si>
   <si>
@@ -429,9 +411,6 @@
     <t>mobile_instruction_manipulation_check_failure_more</t>
   </si>
   <si>
-    <t>mobile_design_next_bottom_always_visible_more_missing-item</t>
-  </si>
-  <si>
     <t>mobile_design_grid_versus_item_by_item_completion_time_shorter</t>
   </si>
   <si>
@@ -495,24 +474,12 @@
     <t>mobile_device_more_powerful_device_higher_completion_time</t>
   </si>
   <si>
-    <t>mobile_reponse_rate_lower</t>
-  </si>
-  <si>
     <t>mobile_scale_reliability_lower</t>
   </si>
   <si>
     <t>mobile_design_grid_versus_item_by_item_correlation_more</t>
   </si>
   <si>
-    <t>mobile_design_two_columns_with_next_bottom_always_visible_less_missing_data_than_one_column</t>
-  </si>
-  <si>
-    <t>mobile_design_next_bottom_always_visible_less_missing_data_than_not_always_visible</t>
-  </si>
-  <si>
-    <t>mobile_design_next_bottom_always_visible_lower_completion_time_than_not_always_visible</t>
-  </si>
-  <si>
     <t>mobile_design_one_column_data_quality_difference_to_two_columns</t>
   </si>
   <si>
@@ -525,27 +492,6 @@
     <t>mobile_positive_evaluation_anwser_less</t>
   </si>
   <si>
-    <t>mobile_design_ios_picker_longer_completion_time_than_radio_botton</t>
-  </si>
-  <si>
-    <t>mobile_design_android_spinner_longer_completion_time_than_radio_botton</t>
-  </si>
-  <si>
-    <t>mobile_design_ios_picker_versus_radio_botton_repondent_burden_higher</t>
-  </si>
-  <si>
-    <t>mobile_design_ios_picker_lower_accuracy_than_radio_botton</t>
-  </si>
-  <si>
-    <t>mobile_design_android_spinner_lower_accuracy_than_radio_botton</t>
-  </si>
-  <si>
-    <t>mobile_design_ios_picker_versus_radio_botton_satisfaction_higher</t>
-  </si>
-  <si>
-    <t>mobile_design_android_spinner_higher_satisfaction_than_radio_botton</t>
-  </si>
-  <si>
     <t>mobile_design_icon_navigation_versus_text_navigation_reponse_time_first_try_slower</t>
   </si>
   <si>
@@ -636,15 +582,6 @@
     <t>mobile_sensitive_questions_answering_more</t>
   </si>
   <si>
-    <t>online_participants_female_use_mobile_more</t>
-  </si>
-  <si>
-    <t>online_participants_young_use_mobile_more</t>
-  </si>
-  <si>
-    <t>online_participants_lower_income_use_mobile_more</t>
-  </si>
-  <si>
     <t>mobile_completion_rate_close_ended_lower</t>
   </si>
   <si>
@@ -657,12 +594,6 @@
     <t>mobile_reponse_randomness_higher</t>
   </si>
   <si>
-    <t>mobile_more_primacy</t>
-  </si>
-  <si>
-    <t>mobile_responses_multicoded_questions_less</t>
-  </si>
-  <si>
     <t>mobile_design_optimized_and_auto_forwarding_shorter_reponse_time</t>
   </si>
   <si>
@@ -672,18 +603,6 @@
     <t>mobile_check_all_that_apply_anwsers_less</t>
   </si>
   <si>
-    <t>online_participants_female_willingness_use_mobile_higher</t>
-  </si>
-  <si>
-    <t>online_participants_younger_willingness_use_mobile_higher</t>
-  </si>
-  <si>
-    <t>online_participants_higher_educated_willingness_use_mobile_higher</t>
-  </si>
-  <si>
-    <t>online_participants_higher_income_willingness_use_mobile_higher</t>
-  </si>
-  <si>
     <t>mobile_more_heaping</t>
   </si>
   <si>
@@ -726,21 +645,6 @@
     <t>input_alternative_ios_voice_more_complicated_than_text</t>
   </si>
   <si>
-    <t xml:space="preserve">online_participants_male_more_mobile_than_female </t>
-  </si>
-  <si>
-    <t>online_participants_male_more_android_than_female</t>
-  </si>
-  <si>
-    <t>online_participants_male_more_ios_than_female</t>
-  </si>
-  <si>
-    <t>online_participants_more_educated_use_smartphone_more</t>
-  </si>
-  <si>
-    <t>online_participants_more_urban_use_mobile_more</t>
-  </si>
-  <si>
     <t>mobile_participants_coverage_bias_weighting_elimated</t>
   </si>
   <si>
@@ -759,24 +663,15 @@
     <t>mobile_completion_rate_matrix_lower</t>
   </si>
   <si>
-    <t>mobile_meaningfull_answers_less</t>
-  </si>
-  <si>
     <t>input_alternative_voice_different_instruction_reduce_technical_problems</t>
   </si>
   <si>
-    <t>online_participants_higher_education_use_mobile_more</t>
-  </si>
-  <si>
     <t>mobile_participants_positive_asylum_decision_higher_participation</t>
   </si>
   <si>
     <t>mobile_design_slider_satisficing_higher</t>
   </si>
   <si>
-    <t>mobile_numeric_label_smaller_impact_than_pc</t>
-  </si>
-  <si>
     <t>input_alternative_messenger_completion_rate_lower</t>
   </si>
   <si>
@@ -1497,12 +1392,6 @@
     <t>mobile_design_more_correlation_in_grid_versus_one_at_a_time_presentation</t>
   </si>
   <si>
-    <t>mobile_design_next_bottom_always_visible_shorter_completion_time</t>
-  </si>
-  <si>
-    <t>mobile_design_next_bottom_always_visible_with_columns_less_missing_data_than_not_always_visible</t>
-  </si>
-  <si>
     <t>mobile_participants_representative_not</t>
   </si>
   <si>
@@ -1564,6 +1453,105 @@
   </si>
   <si>
     <t>input_alternative_moving_data_standing_less_extreme_values_than_walking</t>
+  </si>
+  <si>
+    <t>mobile_response_rate_lower</t>
+  </si>
+  <si>
+    <t>mobile_design_numeric_label_smaller_impact_than_pc</t>
+  </si>
+  <si>
+    <t>mobile_sensitivity_perceived_higher</t>
+  </si>
+  <si>
+    <t>mobile_participants_mobile_increasing</t>
+  </si>
+  <si>
+    <t>mobile_participants_insights</t>
+  </si>
+  <si>
+    <t>mobile_participants_increasing_usage_of_smartphone</t>
+  </si>
+  <si>
+    <t>mobile_participants_not_accepting_mobile_survey_older</t>
+  </si>
+  <si>
+    <t>mobile_participants_female_use_mobile_more</t>
+  </si>
+  <si>
+    <t>mobile_participants_young_use_mobile_more</t>
+  </si>
+  <si>
+    <t>mobile_participants_lower_income_use_mobile_more</t>
+  </si>
+  <si>
+    <t>mobile_participants_female_willingness_use_mobile_higher</t>
+  </si>
+  <si>
+    <t>mobile_participants_younger_willingness_use_mobile_higher</t>
+  </si>
+  <si>
+    <t>mobile_participants_higher_educated_willingness_use_mobile_higher</t>
+  </si>
+  <si>
+    <t>mobile_participants_higher_income_willingness_use_mobile_higher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobile_participants_male_more_mobile_than_female </t>
+  </si>
+  <si>
+    <t>mobile_participants_male_more_android_than_female</t>
+  </si>
+  <si>
+    <t>mobile_participants_male_more_ios_than_female</t>
+  </si>
+  <si>
+    <t>mobile_participants_more_educated_use_smartphone_more</t>
+  </si>
+  <si>
+    <t>mobile_participants_more_urban_use_mobile_more</t>
+  </si>
+  <si>
+    <t>mobile_participants_higher_education_use_mobile_more</t>
+  </si>
+  <si>
+    <t>mobile_design_next_button_always_visible_shorter_completion_time</t>
+  </si>
+  <si>
+    <t>mobile_design_next_button_always_visible_more_missing-item</t>
+  </si>
+  <si>
+    <t>mobile_design_next_button_always_visible_with_columns_less_missing_data_than_not_always_visible</t>
+  </si>
+  <si>
+    <t>mobile_design_two_columns_with_next_button_always_visible_less_missing_data_than_one_column</t>
+  </si>
+  <si>
+    <t>mobile_design_next_button_always_visible_less_missing_data_than_not_always_visible</t>
+  </si>
+  <si>
+    <t>mobile_design_next_button_always_visible_lower_completion_time_than_not_always_visible</t>
+  </si>
+  <si>
+    <t>mobile_design_ios_picker_longer_completion_time_than_radio_button</t>
+  </si>
+  <si>
+    <t>mobile_design_android_spinner_longer_completion_time_than_radio_button</t>
+  </si>
+  <si>
+    <t>mobile_design_ios_picker_versus_radio_button_repondent_burden_higher</t>
+  </si>
+  <si>
+    <t>mobile_design_ios_picker_lower_accuracy_than_radio_button</t>
+  </si>
+  <si>
+    <t>mobile_design_android_spinner_lower_accuracy_than_radio_button</t>
+  </si>
+  <si>
+    <t>mobile_design_ios_picker_versus_radio_button_satisfaction_higher</t>
+  </si>
+  <si>
+    <t>mobile_design_android_spinner_higher_satisfaction_than_radio_button</t>
   </si>
 </sst>
 </file>
@@ -1927,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KB87"/>
+  <dimension ref="A1:JX87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GS1" workbookViewId="0">
-      <selection activeCell="GT13" sqref="GT13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2051,180 +2039,176 @@
     <col min="114" max="114" width="37.5" customWidth="1"/>
     <col min="115" max="115" width="28.1640625" customWidth="1"/>
     <col min="116" max="116" width="39.83203125" customWidth="1"/>
-    <col min="117" max="117" width="41.5" customWidth="1"/>
-    <col min="118" max="118" width="40.83203125" customWidth="1"/>
-    <col min="119" max="119" width="47.6640625" customWidth="1"/>
-    <col min="120" max="120" width="45.83203125" customWidth="1"/>
-    <col min="121" max="121" width="45.33203125" customWidth="1"/>
-    <col min="122" max="122" width="34" customWidth="1"/>
-    <col min="123" max="123" width="48.33203125" customWidth="1"/>
-    <col min="124" max="124" width="62.6640625" customWidth="1"/>
-    <col min="125" max="125" width="52.83203125" customWidth="1"/>
-    <col min="126" max="126" width="28" customWidth="1"/>
-    <col min="127" max="127" width="30" customWidth="1"/>
-    <col min="128" max="128" width="41.6640625" customWidth="1"/>
-    <col min="129" max="129" width="40.6640625" customWidth="1"/>
-    <col min="130" max="130" width="25.83203125" customWidth="1"/>
-    <col min="131" max="131" width="25.33203125" customWidth="1"/>
-    <col min="132" max="132" width="30.33203125" customWidth="1"/>
-    <col min="133" max="133" width="49.33203125" customWidth="1"/>
-    <col min="134" max="134" width="56.33203125" customWidth="1"/>
-    <col min="135" max="135" width="57" customWidth="1"/>
-    <col min="136" max="136" width="60.83203125" customWidth="1"/>
-    <col min="137" max="137" width="51.83203125" customWidth="1"/>
-    <col min="138" max="138" width="57.6640625" customWidth="1"/>
-    <col min="139" max="139" width="65.1640625" customWidth="1"/>
-    <col min="140" max="140" width="77.1640625" customWidth="1"/>
-    <col min="141" max="141" width="61" customWidth="1"/>
-    <col min="142" max="142" width="33.33203125" customWidth="1"/>
-    <col min="143" max="143" width="34.1640625" customWidth="1"/>
-    <col min="144" max="144" width="55.83203125" customWidth="1"/>
-    <col min="145" max="145" width="62" customWidth="1"/>
-    <col min="146" max="146" width="63.33203125" customWidth="1"/>
-    <col min="147" max="147" width="29.5" customWidth="1"/>
-    <col min="148" max="148" width="56" customWidth="1"/>
-    <col min="149" max="149" width="33" customWidth="1"/>
-    <col min="150" max="150" width="32.1640625" customWidth="1"/>
-    <col min="151" max="151" width="73.5" customWidth="1"/>
-    <col min="152" max="152" width="75" customWidth="1"/>
-    <col min="153" max="153" width="74.33203125" customWidth="1"/>
-    <col min="154" max="154" width="50.83203125" customWidth="1"/>
-    <col min="155" max="155" width="52.5" customWidth="1"/>
-    <col min="156" max="156" width="58" customWidth="1"/>
-    <col min="157" max="157" width="28.5" customWidth="1"/>
-    <col min="158" max="158" width="30.33203125" customWidth="1"/>
-    <col min="159" max="159" width="54.33203125" customWidth="1"/>
-    <col min="160" max="160" width="100.5" customWidth="1"/>
-    <col min="161" max="161" width="87" customWidth="1"/>
-    <col min="162" max="162" width="75.83203125" customWidth="1"/>
-    <col min="163" max="163" width="81.33203125" customWidth="1"/>
-    <col min="164" max="164" width="62.1640625" customWidth="1"/>
-    <col min="165" max="165" width="71.1640625" customWidth="1"/>
-    <col min="166" max="166" width="75.83203125" customWidth="1"/>
-    <col min="167" max="167" width="52.83203125" customWidth="1"/>
-    <col min="168" max="168" width="65.6640625" customWidth="1"/>
-    <col min="169" max="169" width="61.1640625" customWidth="1"/>
-    <col min="170" max="170" width="74.1640625" customWidth="1"/>
-    <col min="171" max="171" width="57.83203125" customWidth="1"/>
-    <col min="172" max="172" width="70.6640625" customWidth="1"/>
-    <col min="173" max="173" width="38.33203125" customWidth="1"/>
-    <col min="174" max="174" width="63.1640625" customWidth="1"/>
-    <col min="175" max="175" width="68.1640625" customWidth="1"/>
-    <col min="176" max="176" width="65.83203125" customWidth="1"/>
-    <col min="177" max="177" width="55.5" customWidth="1"/>
-    <col min="178" max="178" width="60.5" customWidth="1"/>
-    <col min="179" max="179" width="59.5" customWidth="1"/>
-    <col min="180" max="180" width="63.1640625" customWidth="1"/>
-    <col min="181" max="181" width="75.33203125" customWidth="1"/>
-    <col min="182" max="182" width="70" customWidth="1"/>
-    <col min="183" max="183" width="65.83203125" customWidth="1"/>
-    <col min="184" max="184" width="57.1640625" customWidth="1"/>
-    <col min="185" max="185" width="28.1640625" customWidth="1"/>
-    <col min="186" max="186" width="51.6640625" customWidth="1"/>
-    <col min="187" max="187" width="56.33203125" customWidth="1"/>
-    <col min="188" max="189" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="35" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="63.33203125" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="67.1640625" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="67.33203125" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="66.33203125" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="66.1640625" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="70.33203125" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="70.1640625" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="58.1640625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="67.5" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="56" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="56.33203125" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="56.83203125" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="49.1640625" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="43" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="49" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="52" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="51" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="63" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="60" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="40" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="61.5" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="60" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="39" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="57" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="53.1640625" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="50.83203125" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="56.1640625" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="54.83203125" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="49" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="49.1640625" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="54.1640625" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="36" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="43" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="44" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="49.1640625" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="49" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="60.1640625" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="49" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="40" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="50" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="40.83203125" customWidth="1"/>
+    <col min="118" max="118" width="47.6640625" customWidth="1"/>
+    <col min="119" max="119" width="45.83203125" customWidth="1"/>
+    <col min="120" max="120" width="45.33203125" customWidth="1"/>
+    <col min="121" max="121" width="34" customWidth="1"/>
+    <col min="122" max="122" width="48.33203125" customWidth="1"/>
+    <col min="123" max="123" width="62.6640625" customWidth="1"/>
+    <col min="124" max="124" width="52.83203125" customWidth="1"/>
+    <col min="125" max="125" width="28" customWidth="1"/>
+    <col min="126" max="126" width="30" customWidth="1"/>
+    <col min="127" max="127" width="41.6640625" customWidth="1"/>
+    <col min="128" max="128" width="40.6640625" customWidth="1"/>
+    <col min="129" max="129" width="25.83203125" customWidth="1"/>
+    <col min="130" max="130" width="25.33203125" customWidth="1"/>
+    <col min="131" max="131" width="30.33203125" customWidth="1"/>
+    <col min="132" max="132" width="49.33203125" customWidth="1"/>
+    <col min="133" max="133" width="56.33203125" customWidth="1"/>
+    <col min="134" max="134" width="57" customWidth="1"/>
+    <col min="135" max="135" width="60.83203125" customWidth="1"/>
+    <col min="136" max="136" width="51.83203125" customWidth="1"/>
+    <col min="137" max="137" width="57.6640625" customWidth="1"/>
+    <col min="138" max="138" width="65.1640625" customWidth="1"/>
+    <col min="139" max="139" width="77.1640625" customWidth="1"/>
+    <col min="140" max="140" width="61" customWidth="1"/>
+    <col min="141" max="141" width="33.33203125" customWidth="1"/>
+    <col min="142" max="142" width="34.1640625" customWidth="1"/>
+    <col min="143" max="143" width="55.83203125" customWidth="1"/>
+    <col min="144" max="144" width="62" customWidth="1"/>
+    <col min="145" max="145" width="63.33203125" customWidth="1"/>
+    <col min="146" max="146" width="29.5" customWidth="1"/>
+    <col min="147" max="147" width="56" customWidth="1"/>
+    <col min="148" max="148" width="33" customWidth="1"/>
+    <col min="149" max="149" width="32.1640625" customWidth="1"/>
+    <col min="150" max="150" width="73.5" customWidth="1"/>
+    <col min="151" max="151" width="75" customWidth="1"/>
+    <col min="152" max="152" width="74.33203125" customWidth="1"/>
+    <col min="153" max="153" width="50.83203125" customWidth="1"/>
+    <col min="154" max="154" width="52.5" customWidth="1"/>
+    <col min="155" max="155" width="58" customWidth="1"/>
+    <col min="156" max="156" width="28.5" customWidth="1"/>
+    <col min="157" max="157" width="30.33203125" customWidth="1"/>
+    <col min="158" max="158" width="54.33203125" customWidth="1"/>
+    <col min="159" max="159" width="100.5" customWidth="1"/>
+    <col min="160" max="160" width="87" customWidth="1"/>
+    <col min="161" max="161" width="75.83203125" customWidth="1"/>
+    <col min="162" max="162" width="81.33203125" customWidth="1"/>
+    <col min="163" max="163" width="62.1640625" customWidth="1"/>
+    <col min="164" max="164" width="71.1640625" customWidth="1"/>
+    <col min="165" max="165" width="75.83203125" customWidth="1"/>
+    <col min="166" max="166" width="52.83203125" customWidth="1"/>
+    <col min="167" max="167" width="65.6640625" customWidth="1"/>
+    <col min="168" max="168" width="61.1640625" customWidth="1"/>
+    <col min="169" max="169" width="74.1640625" customWidth="1"/>
+    <col min="170" max="170" width="57.83203125" customWidth="1"/>
+    <col min="171" max="171" width="70.6640625" customWidth="1"/>
+    <col min="172" max="172" width="38.33203125" customWidth="1"/>
+    <col min="173" max="173" width="63.1640625" customWidth="1"/>
+    <col min="174" max="174" width="68.1640625" customWidth="1"/>
+    <col min="175" max="175" width="65.83203125" customWidth="1"/>
+    <col min="176" max="176" width="55.5" customWidth="1"/>
+    <col min="177" max="177" width="60.5" customWidth="1"/>
+    <col min="178" max="178" width="59.5" customWidth="1"/>
+    <col min="179" max="179" width="63.1640625" customWidth="1"/>
+    <col min="180" max="180" width="75.33203125" customWidth="1"/>
+    <col min="181" max="181" width="70" customWidth="1"/>
+    <col min="182" max="182" width="65.83203125" customWidth="1"/>
+    <col min="183" max="183" width="57.1640625" customWidth="1"/>
+    <col min="184" max="184" width="28.1640625" customWidth="1"/>
+    <col min="185" max="185" width="51.6640625" customWidth="1"/>
+    <col min="186" max="186" width="56.33203125" customWidth="1"/>
+    <col min="187" max="188" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="35" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="67.1640625" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="66.33203125" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="66.1640625" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="70.33203125" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="70.1640625" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="58.1640625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="56" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="43" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="49" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="52" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="51" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="63" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="60" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="40" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="61.5" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="60" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="39" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="57" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="49" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="36" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="43" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="44" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="49" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="60.1640625" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="49" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="40" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="50" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="48.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2367,753 +2351,741 @@
         <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="BX1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="IO1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="HK1" s="1" t="s">
+      <c r="IP1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="HL1" s="1" t="s">
+      <c r="IR1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="HM1" s="1" t="s">
+      <c r="IS1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="HN1" s="1" t="s">
+      <c r="IT1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="HO1" s="1" t="s">
+      <c r="IU1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="HP1" s="1" t="s">
+      <c r="IV1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="HQ1" s="1" t="s">
+      <c r="IW1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="JD1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="HR1" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HU1" s="1" t="s">
+      <c r="JE1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="HV1" s="1" t="s">
+      <c r="JF1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="HW1" s="1" t="s">
+      <c r="JG1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="JH1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="HX1" s="1" t="s">
+      <c r="JI1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="HY1" s="1" t="s">
+      <c r="JJ1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="HZ1" s="1" t="s">
+      <c r="JK1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="IA1" s="1" t="s">
+      <c r="JL1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="IB1" s="1" t="s">
+      <c r="JM1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="IC1" s="1" t="s">
+      <c r="JN1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="ID1" s="1" t="s">
+      <c r="JO1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="IE1" s="1" t="s">
+      <c r="JP1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="IF1" s="1" t="s">
+      <c r="JQ1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="IG1" s="1" t="s">
+      <c r="JR1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="IH1" s="1" t="s">
+      <c r="JS1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="JT1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="II1" s="1" t="s">
+      <c r="JU1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="IJ1" s="1" t="s">
+      <c r="JV1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="IK1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="IM1" s="1" t="s">
+      <c r="JW1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:284" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" t="s">
         <v>228</v>
       </c>
-      <c r="IN1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="IU1" s="1" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" t="s">
         <v>236</v>
       </c>
-      <c r="IV1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="JQ1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="JS1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="JT1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="JU1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="JV1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="JW1" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="JX1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JY1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JZ1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="KA1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="KB1" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="2" spans="1:288" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G2" t="s">
-        <v>271</v>
-      </c>
       <c r="H2" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -3124,50 +3096,50 @@
       <c r="Q2" t="b">
         <v>1</v>
       </c>
+      <c r="GE2">
+        <f t="shared" ref="GE2:GE7" si="0">GF2</f>
+        <v>2017</v>
+      </c>
       <c r="GF2">
-        <f t="shared" ref="GF2:GF7" si="0">GG2</f>
         <v>2017</v>
       </c>
-      <c r="GG2">
-        <v>2017</v>
-      </c>
-      <c r="GH2" t="s">
-        <v>401</v>
+      <c r="GG2" t="s">
+        <v>366</v>
+      </c>
+      <c r="GI2">
+        <v>1614</v>
       </c>
       <c r="GJ2">
-        <v>1614</v>
+        <v>1</v>
       </c>
       <c r="GK2">
         <v>1</v>
       </c>
-      <c r="GL2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:288" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="F3" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="G3" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="H3" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -3178,47 +3150,47 @@
       <c r="Q3" t="b">
         <v>1</v>
       </c>
-      <c r="GF3">
+      <c r="GE3">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="GG3">
+      <c r="GF3">
         <v>2019</v>
       </c>
-      <c r="GH3" t="s">
-        <v>453</v>
-      </c>
-      <c r="GJ3">
+      <c r="GG3" t="s">
+        <v>418</v>
+      </c>
+      <c r="GI3">
         <v>1860</v>
       </c>
-      <c r="JG3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:288" x14ac:dyDescent="0.2">
+      <c r="JC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="F4" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="G4" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="H4" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -3229,56 +3201,56 @@
       <c r="Q4" t="b">
         <v>1</v>
       </c>
-      <c r="GF4">
+      <c r="GE4">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="GG4">
+      <c r="GF4">
         <v>2018</v>
       </c>
-      <c r="GJ4">
+      <c r="GI4">
         <v>521</v>
       </c>
+      <c r="IW4">
+        <v>1</v>
+      </c>
+      <c r="IX4">
+        <v>0</v>
+      </c>
+      <c r="IY4">
+        <v>0</v>
+      </c>
       <c r="IZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JA4">
         <v>0</v>
       </c>
-      <c r="JB4">
-        <v>0</v>
-      </c>
-      <c r="JC4">
-        <v>0</v>
-      </c>
-      <c r="JD4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:288" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="B5" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F5" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="G5" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="H5" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -3292,47 +3264,47 @@
       <c r="AJ5" t="b">
         <v>1</v>
       </c>
-      <c r="GF5">
+      <c r="GE5">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="GG5">
+      <c r="GF5">
         <v>2018</v>
       </c>
-      <c r="JL5">
-        <v>0</v>
-      </c>
-      <c r="JM5">
-        <v>1</v>
-      </c>
-      <c r="JN5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:288" x14ac:dyDescent="0.2">
+      <c r="JH5">
+        <v>0</v>
+      </c>
+      <c r="JI5">
+        <v>1</v>
+      </c>
+      <c r="JJ5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="F6" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="G6" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="H6" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -3343,56 +3315,56 @@
       <c r="Q6" t="b">
         <v>1</v>
       </c>
-      <c r="GF6">
+      <c r="GE6">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="GG6">
+      <c r="GF6">
         <v>2017</v>
       </c>
-      <c r="GH6" t="s">
-        <v>410</v>
-      </c>
-      <c r="GJ6">
+      <c r="GG6" t="s">
+        <v>375</v>
+      </c>
+      <c r="GI6">
         <v>89</v>
       </c>
+      <c r="GS6">
+        <v>1</v>
+      </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>1</v>
-      </c>
-      <c r="GW6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:288" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="F7" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="G7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="H7" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -3403,94 +3375,97 @@
       <c r="Q7" t="b">
         <v>1</v>
       </c>
-      <c r="GF7">
+      <c r="GE7">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="GG7">
+      <c r="GF7">
         <v>2018</v>
       </c>
-      <c r="GJ7">
+      <c r="GI7">
         <v>1205</v>
       </c>
+      <c r="HZ7">
+        <v>1</v>
+      </c>
+      <c r="IA7">
+        <v>1</v>
+      </c>
+      <c r="IB7">
+        <v>0</v>
+      </c>
       <c r="IC7">
         <v>1</v>
       </c>
       <c r="ID7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF7">
         <v>1</v>
       </c>
       <c r="IG7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH7">
         <v>1</v>
       </c>
       <c r="II7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IJ7">
         <v>1</v>
       </c>
       <c r="IK7">
-        <v>1</v>
-      </c>
-      <c r="IL7">
-        <v>0</v>
-      </c>
-      <c r="IM7">
-        <v>1</v>
-      </c>
-      <c r="IN7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:288" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="CB8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:288" x14ac:dyDescent="0.2">
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="CA8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F9" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="G9" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H9" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -3504,44 +3479,44 @@
       <c r="W9" t="b">
         <v>0</v>
       </c>
+      <c r="GE9">
+        <f>GF9</f>
+        <v>2015</v>
+      </c>
       <c r="GF9">
-        <f>GG9</f>
         <v>2015</v>
       </c>
-      <c r="GG9">
-        <v>2015</v>
+      <c r="HJ9">
+        <v>1</v>
       </c>
       <c r="HK9">
         <v>1</v>
       </c>
-      <c r="HL9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:288" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="B10" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="F10" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="G10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H10" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -3555,6 +3530,9 @@
       <c r="AD10">
         <v>1</v>
       </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
       <c r="AU10">
         <v>1</v>
       </c>
@@ -3564,47 +3542,44 @@
       <c r="BX10">
         <v>0</v>
       </c>
+      <c r="GE10">
+        <f>GF10</f>
+        <v>2017</v>
+      </c>
       <c r="GF10">
-        <f>GG10</f>
         <v>2017</v>
       </c>
-      <c r="GG10">
-        <v>2017</v>
-      </c>
-      <c r="GJ10">
+      <c r="GI10">
         <v>1604</v>
       </c>
-      <c r="HO10">
-        <v>0</v>
-      </c>
-      <c r="HP10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:288" x14ac:dyDescent="0.2">
+      <c r="HS10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="G11" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H11" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -3642,38 +3617,38 @@
       <c r="Z11">
         <v>0</v>
       </c>
+      <c r="GE11">
+        <f>GF11</f>
+        <v>2012</v>
+      </c>
       <c r="GF11">
-        <f>GG11</f>
         <v>2012</v>
       </c>
-      <c r="GG11">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:288" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F12" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="G12" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="H12" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -3705,38 +3680,38 @@
       <c r="BA12">
         <v>1</v>
       </c>
+      <c r="GE12">
+        <f>GF12</f>
+        <v>2011</v>
+      </c>
       <c r="GF12">
-        <f>GG12</f>
         <v>2011</v>
       </c>
-      <c r="GG12">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:288" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="B13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" t="s">
+        <v>241</v>
+      </c>
+      <c r="H13" t="s">
         <v>274</v>
-      </c>
-      <c r="C13" t="s">
-        <v>306</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>307</v>
-      </c>
-      <c r="F13" t="s">
-        <v>308</v>
-      </c>
-      <c r="G13" t="s">
-        <v>276</v>
-      </c>
-      <c r="H13" t="s">
-        <v>309</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -3748,30 +3723,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:288" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="B14" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F14" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="G14" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H14" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -3782,37 +3757,37 @@
       <c r="W14" t="b">
         <v>0</v>
       </c>
-      <c r="GJ14">
+      <c r="GI14">
         <v>56</v>
       </c>
-      <c r="JU14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:288" x14ac:dyDescent="0.2">
+      <c r="JQ14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C15" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F15" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="G15" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="H15" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -3829,47 +3804,47 @@
       <c r="AU15">
         <v>1</v>
       </c>
+      <c r="GE15">
+        <f>GF15</f>
+        <v>2015</v>
+      </c>
       <c r="GF15">
-        <f>GG15</f>
         <v>2015</v>
       </c>
-      <c r="GG15">
-        <v>2015</v>
-      </c>
-      <c r="GH15" t="b">
-        <v>0</v>
-      </c>
-      <c r="HK15">
-        <v>1</v>
-      </c>
-      <c r="IY15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:288" x14ac:dyDescent="0.2">
+      <c r="GG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="HJ15">
+        <v>1</v>
+      </c>
+      <c r="IV15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C16" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="F16" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H16" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -3887,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="AA16" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="AB16">
         <v>1</v>
@@ -3916,38 +3891,38 @@
       <c r="AJ16" t="b">
         <v>1</v>
       </c>
+      <c r="GE16">
+        <f>GF16</f>
+        <v>2011</v>
+      </c>
       <c r="GF16">
-        <f>GG16</f>
         <v>2011</v>
       </c>
-      <c r="GG16">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:285" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C17" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F17" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="G17" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H17" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -3964,28 +3939,28 @@
       <c r="CZ17">
         <v>0</v>
       </c>
-      <c r="GJ17">
+      <c r="GI17">
         <v>329</v>
       </c>
-      <c r="HM17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:285" x14ac:dyDescent="0.2">
+      <c r="HL17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="B18" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C18" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -4020,38 +3995,38 @@
       <c r="BU18">
         <v>1</v>
       </c>
+      <c r="GE18">
+        <f>GF18</f>
+        <v>2012</v>
+      </c>
       <c r="GF18">
-        <f>GG18</f>
         <v>2012</v>
       </c>
-      <c r="GG18">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="19" spans="1:285" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C19" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="G19" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H19" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -4069,7 +4044,10 @@
         <v>1</v>
       </c>
       <c r="AA19" t="s">
-        <v>294</v>
+        <v>259</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
       </c>
       <c r="AK19">
         <v>1</v>
@@ -4099,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="DM19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN19">
         <v>1</v>
@@ -4107,41 +4085,38 @@
       <c r="DO19">
         <v>1</v>
       </c>
-      <c r="DP19">
-        <v>1</v>
+      <c r="GE19">
+        <f>GF19</f>
+        <v>2013</v>
       </c>
       <c r="GF19">
-        <f>GG19</f>
         <v>2013</v>
       </c>
-      <c r="GG19">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="20" spans="1:285" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="F20" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="G20" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H20" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -4164,138 +4139,99 @@
       <c r="CY20">
         <v>0</v>
       </c>
+      <c r="GE20">
+        <f>GF20</f>
+        <v>2014</v>
+      </c>
       <c r="GF20">
-        <f>GG20</f>
         <v>2014</v>
       </c>
-      <c r="GG20">
-        <v>2014</v>
-      </c>
-      <c r="GJ20">
+      <c r="GI20">
         <v>1000</v>
       </c>
-      <c r="HG20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:285" x14ac:dyDescent="0.2">
+      <c r="HF20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="B21" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="C21" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="F21" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="G21" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H21" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>38841</v>
-      </c>
-      <c r="Q21" t="b">
-        <v>1</v>
-      </c>
-      <c r="W21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD21">
-        <v>1</v>
-      </c>
-      <c r="DC21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:285" x14ac:dyDescent="0.2">
+        <v>6817</v>
+      </c>
+      <c r="CS21">
+        <v>1</v>
+      </c>
+      <c r="CT21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="B22" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="C22" t="s">
-        <v>317</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>270</v>
-      </c>
-      <c r="F22" t="s">
-        <v>288</v>
-      </c>
-      <c r="G22" t="s">
-        <v>266</v>
-      </c>
-      <c r="H22" t="s">
-        <v>272</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>512</v>
-      </c>
-      <c r="Q22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>352</v>
-      </c>
-      <c r="DQ22">
-        <v>0</v>
-      </c>
-      <c r="DR22">
-        <v>1</v>
-      </c>
-      <c r="DS22">
-        <v>0</v>
-      </c>
-      <c r="DT22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:285" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="BZ22">
+        <v>1</v>
+      </c>
+      <c r="CA22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C23" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="F23" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="G23" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H23" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -4310,55 +4246,55 @@
         <v>1</v>
       </c>
       <c r="AA23" t="s">
-        <v>294</v>
+        <v>259</v>
+      </c>
+      <c r="GE23">
+        <f>GF23</f>
+        <v>2013</v>
       </c>
       <c r="GF23">
-        <f>GG23</f>
         <v>2013</v>
       </c>
-      <c r="GG23">
-        <v>2013</v>
-      </c>
-      <c r="GJ23">
+      <c r="GI23">
         <v>836</v>
       </c>
+      <c r="IR23">
+        <v>1</v>
+      </c>
+      <c r="IS23">
+        <v>1</v>
+      </c>
+      <c r="IT23">
+        <v>1</v>
+      </c>
       <c r="IU23">
         <v>1</v>
       </c>
-      <c r="IV23">
-        <v>1</v>
-      </c>
-      <c r="IW23">
-        <v>1</v>
-      </c>
-      <c r="IX23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:285" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="B24" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C24" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F24" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="G24" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H24" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -4381,37 +4317,37 @@
       <c r="CE24">
         <v>1</v>
       </c>
-      <c r="GF24">
+      <c r="GE24">
         <v>2012</v>
       </c>
-      <c r="GG24" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:285" x14ac:dyDescent="0.2">
+      <c r="GF24" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C25" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F25" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H25" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -4434,38 +4370,38 @@
       <c r="AY25">
         <v>0</v>
       </c>
+      <c r="GE25">
+        <f>GF25</f>
+        <v>2011</v>
+      </c>
       <c r="GF25">
-        <f>GG25</f>
         <v>2011</v>
       </c>
-      <c r="GG25">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="26" spans="1:285" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C26" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="F26" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="G26" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H26" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -4491,8 +4427,11 @@
       <c r="CO26">
         <v>0</v>
       </c>
+      <c r="EP26">
+        <v>0</v>
+      </c>
       <c r="EQ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER26">
         <v>1</v>
@@ -4504,114 +4443,111 @@
         <v>1</v>
       </c>
       <c r="EU26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY26">
-        <v>1</v>
-      </c>
-      <c r="EZ26">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="GE26">
+        <f>GF26</f>
+        <v>2014</v>
       </c>
       <c r="GF26">
-        <f>GG26</f>
         <v>2014</v>
       </c>
-      <c r="GG26">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="27" spans="1:285" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="F27" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="G27" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H27" t="s">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="J27" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="R27" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="W27" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="AJ27" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="AR27" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="AS27" t="s">
-        <v>334</v>
-      </c>
-      <c r="GF27">
+        <v>299</v>
+      </c>
+      <c r="GE27">
         <v>2017</v>
       </c>
-      <c r="GG27" t="s">
-        <v>473</v>
-      </c>
-      <c r="GJ27" t="s">
-        <v>474</v>
-      </c>
-      <c r="JX27" t="s">
-        <v>363</v>
-      </c>
-      <c r="JY27" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="28" spans="1:285" x14ac:dyDescent="0.2">
+      <c r="GF27" t="s">
+        <v>438</v>
+      </c>
+      <c r="GI27" t="s">
+        <v>439</v>
+      </c>
+      <c r="JT27" t="s">
+        <v>328</v>
+      </c>
+      <c r="JU27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C28" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="F28" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="G28" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H28" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -4626,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="AA28" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="AY28">
         <v>1</v>
@@ -4634,50 +4570,50 @@
       <c r="DA28">
         <v>0</v>
       </c>
+      <c r="GE28">
+        <f>GF28</f>
+        <v>2018</v>
+      </c>
       <c r="GF28">
-        <f t="shared" ref="GF28:GF33" si="1">GG28</f>
         <v>2018</v>
       </c>
-      <c r="GG28">
-        <v>2018</v>
-      </c>
-      <c r="GJ28">
+      <c r="GI28">
         <v>1612</v>
       </c>
-      <c r="HV28">
-        <v>0</v>
-      </c>
-      <c r="IA28">
-        <v>1</v>
-      </c>
-      <c r="IB28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:285" x14ac:dyDescent="0.2">
+      <c r="HS28">
+        <v>0</v>
+      </c>
+      <c r="HX28">
+        <v>1</v>
+      </c>
+      <c r="HY28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C29" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="F29" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="G29" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H29" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -4686,7 +4622,7 @@
         <v>1800</v>
       </c>
       <c r="Q29" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="W29" t="b">
         <v>1</v>
@@ -4712,38 +4648,38 @@
       <c r="CR29">
         <v>0</v>
       </c>
+      <c r="GE29">
+        <f>GF29</f>
+        <v>2015</v>
+      </c>
       <c r="GF29">
-        <f t="shared" si="1"/>
         <v>2015</v>
       </c>
-      <c r="GG29">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="30" spans="1:285" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C30" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="G30" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H30" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -4761,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="AA30" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="AB30">
         <v>1</v>
@@ -4781,38 +4717,38 @@
       <c r="AN30">
         <v>0</v>
       </c>
+      <c r="GE30">
+        <f>GF30</f>
+        <v>2012</v>
+      </c>
       <c r="GF30">
-        <f t="shared" si="1"/>
         <v>2012</v>
       </c>
-      <c r="GG30">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="31" spans="1:285" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C31" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="F31" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="G31" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H31" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -4821,52 +4757,52 @@
         <v>1127</v>
       </c>
       <c r="AA31" t="s">
-        <v>294</v>
+        <v>259</v>
+      </c>
+      <c r="GE31">
+        <f>GF31</f>
+        <v>2013</v>
       </c>
       <c r="GF31">
-        <f t="shared" si="1"/>
         <v>2013</v>
       </c>
-      <c r="GG31">
-        <v>2013</v>
-      </c>
-      <c r="GJ31">
+      <c r="GI31">
         <v>800</v>
       </c>
+      <c r="HC31">
+        <v>1</v>
+      </c>
       <c r="HD31">
-        <v>1</v>
-      </c>
-      <c r="HE31">
-        <v>0</v>
-      </c>
-      <c r="HI31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:285" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="HH31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="B32" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C32" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="F32" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="G32" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H32" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -4895,47 +4831,47 @@
       <c r="CO32">
         <v>0</v>
       </c>
+      <c r="GE32">
+        <f>GF32</f>
+        <v>2015</v>
+      </c>
       <c r="GF32">
-        <f t="shared" si="1"/>
         <v>2015</v>
       </c>
-      <c r="GG32">
-        <v>2015</v>
-      </c>
-      <c r="GJ32">
+      <c r="GI32">
         <v>592</v>
       </c>
+      <c r="HL32">
+        <v>1</v>
+      </c>
       <c r="HM32">
-        <v>1</v>
-      </c>
-      <c r="HN32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:230" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:227" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C33" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="F33" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="G33" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H33" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -4944,7 +4880,7 @@
         <v>1843</v>
       </c>
       <c r="Q33" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -4970,38 +4906,38 @@
       <c r="CY33">
         <v>0</v>
       </c>
+      <c r="GE33">
+        <f>GF33</f>
+        <v>2015</v>
+      </c>
       <c r="GF33">
-        <f t="shared" si="1"/>
         <v>2015</v>
       </c>
-      <c r="GG33">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="34" spans="1:230" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:227" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C34" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F34" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="G34" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H34" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -5022,27 +4958,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:230" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:227" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="B35" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C35" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F35" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="G35" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -5053,6 +4989,9 @@
       <c r="W35" t="b">
         <v>0</v>
       </c>
+      <c r="GW35">
+        <v>0</v>
+      </c>
       <c r="GX35">
         <v>0</v>
       </c>
@@ -5060,42 +4999,39 @@
         <v>0</v>
       </c>
       <c r="GZ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HA35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB35">
         <v>0</v>
       </c>
-      <c r="HC35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:230" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:227" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C36" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="F36" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="G36" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H36" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -5110,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="AA36" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="AJ36" t="b">
         <v>1</v>
@@ -5127,38 +5063,38 @@
       <c r="BY36">
         <v>1</v>
       </c>
+      <c r="GE36">
+        <f>GF36</f>
+        <v>2014</v>
+      </c>
       <c r="GF36">
-        <f>GG36</f>
         <v>2014</v>
       </c>
-      <c r="GG36">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="37" spans="1:230" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:227" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C37" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="G37" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H37" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -5176,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="AA37" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="AE37">
         <v>1</v>
@@ -5190,41 +5126,41 @@
       <c r="CF37">
         <v>1</v>
       </c>
+      <c r="GE37">
+        <f>GF37</f>
+        <v>2013</v>
+      </c>
       <c r="GF37">
-        <f>GG37</f>
         <v>2013</v>
       </c>
-      <c r="GG37">
-        <v>2013</v>
-      </c>
-      <c r="HV37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:230" x14ac:dyDescent="0.2">
+      <c r="HS37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:227" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C38" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="G38" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="H38" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -5239,7 +5175,7 @@
         <v>1</v>
       </c>
       <c r="AA38" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="AY38">
         <v>0</v>
@@ -5247,44 +5183,44 @@
       <c r="BX38">
         <v>0</v>
       </c>
+      <c r="EZ38">
+        <v>0</v>
+      </c>
       <c r="FA38">
         <v>0</v>
       </c>
-      <c r="FB38">
-        <v>0</v>
+      <c r="GE38">
+        <f>GF38</f>
+        <v>2015</v>
       </c>
       <c r="GF38">
-        <f>GG38</f>
         <v>2015</v>
       </c>
-      <c r="GG38">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="39" spans="1:230" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:227" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C39" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="F39" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="G39" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H39" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
@@ -5308,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="AA39" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="AD39">
         <v>0</v>
@@ -5337,38 +5273,38 @@
       <c r="AU39">
         <v>0</v>
       </c>
+      <c r="GE39">
+        <f>GF39</f>
+        <v>2012</v>
+      </c>
       <c r="GF39">
-        <f>GG39</f>
         <v>2012</v>
       </c>
-      <c r="GG39">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="40" spans="1:230" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:227" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" t="s">
+        <v>241</v>
+      </c>
+      <c r="H40" t="s">
         <v>274</v>
-      </c>
-      <c r="C40" t="s">
-        <v>263</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>307</v>
-      </c>
-      <c r="F40" t="s">
-        <v>308</v>
-      </c>
-      <c r="G40" t="s">
-        <v>276</v>
-      </c>
-      <c r="H40" t="s">
-        <v>309</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -5382,134 +5318,128 @@
       <c r="AD40">
         <v>1</v>
       </c>
-      <c r="GF40">
+      <c r="GE40">
         <v>2010</v>
       </c>
-      <c r="GG40" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="41" spans="1:230" x14ac:dyDescent="0.2">
+      <c r="GF40" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:227" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>381</v>
+        <v>249</v>
       </c>
       <c r="B41" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="C41" t="s">
+        <v>250</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:227" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" t="s">
+        <v>266</v>
+      </c>
+      <c r="C42" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:227" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>346</v>
+      </c>
+      <c r="B43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" t="s">
+        <v>250</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="CA43">
+        <v>1</v>
+      </c>
+      <c r="CB43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:227" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" t="s">
+        <v>250</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="CA44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:227" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>285</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="CA41">
-        <v>1</v>
-      </c>
-      <c r="CB41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:230" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>286</v>
-      </c>
-      <c r="B42" t="s">
-        <v>301</v>
-      </c>
-      <c r="C42" t="s">
-        <v>285</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:230" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>300</v>
-      </c>
-      <c r="B43" t="s">
-        <v>301</v>
-      </c>
-      <c r="C43" t="s">
-        <v>285</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="CA43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:230" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>311</v>
-      </c>
-      <c r="B44" t="s">
-        <v>301</v>
-      </c>
-      <c r="C44" t="s">
-        <v>285</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="BV44">
-        <v>1</v>
-      </c>
-      <c r="BW44">
-        <v>1</v>
-      </c>
-      <c r="CA44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:230" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>284</v>
-      </c>
       <c r="B45" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="C45" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="AO45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:230" x14ac:dyDescent="0.2">
+      <c r="CB45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:227" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C46" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="F46" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="G46" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H46" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="J46">
         <v>1800</v>
       </c>
       <c r="Q46" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="W46" t="b">
         <v>1</v>
@@ -5520,38 +5450,38 @@
       <c r="DF46">
         <v>0</v>
       </c>
+      <c r="GE46">
+        <f>GF46</f>
+        <v>2015</v>
+      </c>
       <c r="GF46">
-        <f t="shared" ref="GF46:GF52" si="2">GG46</f>
         <v>2015</v>
       </c>
-      <c r="GG46">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="47" spans="1:230" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:227" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="B47" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C47" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F47" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="G47" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H47" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -5562,38 +5492,38 @@
       <c r="Q47" t="b">
         <v>1</v>
       </c>
+      <c r="GE47">
+        <f>GF47</f>
+        <v>2014</v>
+      </c>
       <c r="GF47">
-        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="GG47">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="48" spans="1:230" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:227" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C48" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="F48" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="G48" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H48" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
@@ -5602,7 +5532,7 @@
         <v>1608</v>
       </c>
       <c r="Q48" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="W48" t="b">
         <v>1</v>
@@ -5613,38 +5543,38 @@
       <c r="DD48">
         <v>0</v>
       </c>
+      <c r="GE48">
+        <f>GF48</f>
+        <v>2015</v>
+      </c>
       <c r="GF48">
-        <f t="shared" si="2"/>
         <v>2015</v>
       </c>
-      <c r="GG48">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="49" spans="1:288" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="B49" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C49" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="F49" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="G49" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H49" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
@@ -5664,6 +5594,9 @@
       <c r="DL49">
         <v>0</v>
       </c>
+      <c r="DZ49">
+        <v>0</v>
+      </c>
       <c r="EA49">
         <v>0</v>
       </c>
@@ -5674,10 +5607,10 @@
         <v>0</v>
       </c>
       <c r="ED49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF49">
         <v>0</v>
@@ -5694,41 +5627,38 @@
       <c r="EJ49">
         <v>0</v>
       </c>
-      <c r="EK49">
-        <v>0</v>
+      <c r="GE49">
+        <f>GF49</f>
+        <v>2016</v>
       </c>
       <c r="GF49">
-        <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="GG49">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="50" spans="1:288" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="B50" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C50" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="F50" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="G50" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H50" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
@@ -5739,41 +5669,41 @@
       <c r="Q50" t="b">
         <v>1</v>
       </c>
-      <c r="FJ50">
-        <v>1</v>
+      <c r="FI50">
+        <v>1</v>
+      </c>
+      <c r="GE50">
+        <f>GF50</f>
+        <v>2016</v>
       </c>
       <c r="GF50">
-        <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="GG50">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="51" spans="1:288" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="B51" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C51" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F51" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="G51" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H51" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -5784,38 +5714,38 @@
       <c r="DB51">
         <v>1</v>
       </c>
+      <c r="GE51">
+        <f>GF51</f>
+        <v>2013</v>
+      </c>
       <c r="GF51">
-        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
-      <c r="GG51">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="52" spans="1:288" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="B52" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C52" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="F52" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="G52" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H52" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="J52">
         <v>1317</v>
@@ -5823,70 +5753,70 @@
       <c r="Q52" t="b">
         <v>1</v>
       </c>
+      <c r="GE52">
+        <f>GF52</f>
+        <v>2015</v>
+      </c>
       <c r="GF52">
-        <f t="shared" si="2"/>
         <v>2015</v>
       </c>
-      <c r="GG52">
-        <v>2015</v>
-      </c>
-      <c r="GH52" t="s">
-        <v>396</v>
-      </c>
-      <c r="GJ52">
+      <c r="GG52" t="s">
+        <v>361</v>
+      </c>
+      <c r="GI52">
         <v>303</v>
       </c>
-      <c r="JE52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:288" x14ac:dyDescent="0.2">
+      <c r="JB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C53" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="H53" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="J53">
         <v>30</v>
       </c>
-      <c r="DZ53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:288" x14ac:dyDescent="0.2">
+      <c r="DY53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C54" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="G54" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="H54" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
@@ -5909,38 +5839,38 @@
       <c r="P54">
         <v>1</v>
       </c>
+      <c r="GE54">
+        <f>GF54</f>
+        <v>2007</v>
+      </c>
       <c r="GF54">
-        <f>GG54</f>
         <v>2007</v>
       </c>
-      <c r="GG54">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="55" spans="1:288" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="B55" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C55" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="F55" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="G55" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H55" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -5951,50 +5881,50 @@
       <c r="Q55" t="b">
         <v>1</v>
       </c>
+      <c r="GE55">
+        <f>GF55</f>
+        <v>2018</v>
+      </c>
       <c r="GF55">
-        <f>GG55</f>
         <v>2018</v>
       </c>
-      <c r="GG55">
-        <v>2018</v>
-      </c>
-      <c r="GJ55">
+      <c r="GI55">
         <v>1721</v>
       </c>
-      <c r="JZ55">
-        <v>0</v>
-      </c>
-      <c r="KA55">
-        <v>1</v>
-      </c>
-      <c r="KB55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:288" x14ac:dyDescent="0.2">
+      <c r="JV55">
+        <v>0</v>
+      </c>
+      <c r="JW55">
+        <v>1</v>
+      </c>
+      <c r="JX55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C56" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="F56" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="G56" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H56" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
@@ -6012,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="AA56" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="AB56">
         <v>0</v>
@@ -6023,55 +5953,55 @@
       <c r="BX56">
         <v>0</v>
       </c>
-      <c r="EF56">
+      <c r="EE56">
+        <v>1</v>
+      </c>
+      <c r="EK56">
         <v>1</v>
       </c>
       <c r="EL56">
         <v>1</v>
       </c>
       <c r="EM56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO56">
         <v>1</v>
       </c>
-      <c r="EP56">
-        <v>1</v>
-      </c>
-      <c r="GF56">
+      <c r="GE56">
         <v>2016</v>
       </c>
-      <c r="GG56" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="57" spans="1:288" x14ac:dyDescent="0.2">
+      <c r="GF56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="B57" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>244</v>
+      </c>
+      <c r="F57" t="s">
+        <v>245</v>
+      </c>
+      <c r="G57" t="s">
+        <v>241</v>
+      </c>
+      <c r="H57" t="s">
         <v>269</v>
-      </c>
-      <c r="C57" t="s">
-        <v>263</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>279</v>
-      </c>
-      <c r="F57" t="s">
-        <v>280</v>
-      </c>
-      <c r="G57" t="s">
-        <v>276</v>
-      </c>
-      <c r="H57" t="s">
-        <v>304</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -6080,97 +6010,97 @@
         <v>2032</v>
       </c>
       <c r="AA57" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="CG57" t="s">
+        <v>294</v>
+      </c>
+      <c r="CH57">
+        <v>0</v>
+      </c>
+      <c r="CI57">
+        <v>1</v>
+      </c>
+      <c r="GE57">
+        <f>GF57</f>
+        <v>2013</v>
+      </c>
+      <c r="GF57">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="58" spans="1:284" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>326</v>
+      </c>
+      <c r="B58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>235</v>
+      </c>
+      <c r="F58" t="s">
+        <v>327</v>
+      </c>
+      <c r="G58" t="s">
+        <v>241</v>
+      </c>
+      <c r="H58" t="s">
+        <v>237</v>
+      </c>
+      <c r="I58" t="s">
+        <v>328</v>
+      </c>
+      <c r="J58" t="s">
         <v>329</v>
       </c>
-      <c r="CH57">
-        <v>0</v>
-      </c>
-      <c r="CI57">
-        <v>1</v>
-      </c>
-      <c r="GF57">
-        <f t="shared" ref="GF57:GF62" si="3">GG57</f>
-        <v>2013</v>
-      </c>
-      <c r="GG57">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="58" spans="1:288" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>361</v>
-      </c>
-      <c r="B58" t="s">
-        <v>269</v>
-      </c>
-      <c r="C58" t="s">
-        <v>263</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>270</v>
-      </c>
-      <c r="F58" t="s">
-        <v>362</v>
-      </c>
-      <c r="G58" t="s">
-        <v>276</v>
-      </c>
-      <c r="H58" t="s">
-        <v>272</v>
-      </c>
-      <c r="I58" t="s">
-        <v>363</v>
-      </c>
-      <c r="J58" t="s">
-        <v>364</v>
-      </c>
       <c r="Q58" t="b">
         <v>1</v>
       </c>
+      <c r="DW58" t="s">
+        <v>330</v>
+      </c>
       <c r="DX58" t="s">
-        <v>365</v>
-      </c>
-      <c r="DY58" t="s">
-        <v>365</v>
+        <v>330</v>
+      </c>
+      <c r="GE58">
+        <f>GF58</f>
+        <v>2017</v>
       </c>
       <c r="GF58">
-        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="GG58">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="59" spans="1:288" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="B59" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C59" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="F59" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="G59" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H59" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -6182,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="AA59" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -6217,38 +6147,38 @@
       <c r="BK59">
         <v>0</v>
       </c>
+      <c r="GE59">
+        <f>GF59</f>
+        <v>2013</v>
+      </c>
       <c r="GF59">
-        <f t="shared" si="3"/>
         <v>2013</v>
       </c>
-      <c r="GG59">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="60" spans="1:288" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="B60" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C60" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="F60" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="G60" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H60" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -6265,44 +6195,44 @@
       <c r="AD60">
         <v>1</v>
       </c>
+      <c r="GE60">
+        <f>GF60</f>
+        <v>2016</v>
+      </c>
       <c r="GF60">
-        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
-      <c r="GG60">
-        <v>2016</v>
-      </c>
-      <c r="GH60" t="s">
-        <v>396</v>
-      </c>
-      <c r="GI60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:288" x14ac:dyDescent="0.2">
+      <c r="GG60" t="s">
+        <v>361</v>
+      </c>
+      <c r="GH60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="B61" t="s">
+        <v>234</v>
+      </c>
+      <c r="C61" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>244</v>
+      </c>
+      <c r="F61" t="s">
+        <v>245</v>
+      </c>
+      <c r="G61" t="s">
+        <v>236</v>
+      </c>
+      <c r="H61" t="s">
         <v>269</v>
-      </c>
-      <c r="C61" t="s">
-        <v>263</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
-        <v>279</v>
-      </c>
-      <c r="F61" t="s">
-        <v>280</v>
-      </c>
-      <c r="G61" t="s">
-        <v>271</v>
-      </c>
-      <c r="H61" t="s">
-        <v>304</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -6317,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="AA61" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="BB61">
         <v>1</v>
@@ -6346,80 +6276,80 @@
       <c r="BQ61">
         <v>1</v>
       </c>
+      <c r="GE61">
+        <f>GF61</f>
+        <v>2013</v>
+      </c>
       <c r="GF61">
-        <f t="shared" si="3"/>
         <v>2013</v>
       </c>
-      <c r="GG61">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="62" spans="1:288" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="B62" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C62" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="F62" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="G62" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H62" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="J62">
         <v>3807</v>
       </c>
       <c r="AA62" t="s">
-        <v>294</v>
+        <v>259</v>
+      </c>
+      <c r="GD62">
+        <v>1</v>
       </c>
       <c r="GE62">
-        <v>1</v>
+        <f>GF62</f>
+        <v>2015</v>
       </c>
       <c r="GF62">
-        <f t="shared" si="3"/>
         <v>2015</v>
       </c>
-      <c r="GG62">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="63" spans="1:288" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="B63" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C63" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F63" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="G63" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="H63" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -6427,6 +6357,9 @@
       <c r="J63">
         <v>62</v>
       </c>
+      <c r="FQ63">
+        <v>1</v>
+      </c>
       <c r="FR63">
         <v>1</v>
       </c>
@@ -6434,7 +6367,7 @@
         <v>1</v>
       </c>
       <c r="FT63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU63">
         <v>0</v>
@@ -6446,42 +6379,39 @@
         <v>0</v>
       </c>
       <c r="FX63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ63">
         <v>0</v>
       </c>
       <c r="GA63">
-        <v>0</v>
-      </c>
-      <c r="GB63">
-        <v>1</v>
-      </c>
-      <c r="GF63">
+        <v>1</v>
+      </c>
+      <c r="GE63">
         <v>2016</v>
       </c>
-      <c r="GG63" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="64" spans="1:288" x14ac:dyDescent="0.2">
+      <c r="GF63" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:284" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="B64" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C64" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -6489,38 +6419,38 @@
       <c r="J64">
         <v>2221</v>
       </c>
+      <c r="GE64">
+        <f>GF64</f>
+        <v>2016</v>
+      </c>
       <c r="GF64">
-        <f>GG64</f>
         <v>2016</v>
       </c>
-      <c r="GG64">
-        <v>2016</v>
-      </c>
-      <c r="GJ64">
+      <c r="GI64">
         <v>717</v>
       </c>
-      <c r="HF64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:283" x14ac:dyDescent="0.2">
+      <c r="HE64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="B65" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C65" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H65" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -6528,34 +6458,34 @@
       <c r="J65">
         <v>1998</v>
       </c>
-      <c r="DU65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:283" x14ac:dyDescent="0.2">
+      <c r="DT65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="B66" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C66" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="F66" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="G66" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H66" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="J66">
         <v>10467</v>
@@ -6563,49 +6493,49 @@
       <c r="Q66" t="b">
         <v>0</v>
       </c>
-      <c r="GF66">
+      <c r="GE66">
         <v>2015</v>
       </c>
+      <c r="GF66" t="s">
+        <v>424</v>
+      </c>
       <c r="GG66" t="s">
-        <v>459</v>
-      </c>
-      <c r="GH66" t="s">
-        <v>460</v>
-      </c>
-      <c r="GJ66">
+        <v>425</v>
+      </c>
+      <c r="GI66">
         <v>3200</v>
       </c>
-      <c r="JJ66">
-        <v>1</v>
-      </c>
-      <c r="JK66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:283" x14ac:dyDescent="0.2">
+      <c r="JF66">
+        <v>1</v>
+      </c>
+      <c r="JG66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="B67" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C67" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="F67" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="G67" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H67" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
@@ -6619,11 +6549,14 @@
       <c r="CO67">
         <v>0</v>
       </c>
+      <c r="FJ67">
+        <v>1</v>
+      </c>
       <c r="FK67">
         <v>1</v>
       </c>
       <c r="FL67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM67">
         <v>0</v>
@@ -6635,43 +6568,40 @@
         <v>0</v>
       </c>
       <c r="FP67">
-        <v>0</v>
-      </c>
-      <c r="FQ67">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="GE67">
+        <f>GF67</f>
+        <v>2014</v>
       </c>
       <c r="GF67">
-        <f>GG67</f>
         <v>2014</v>
       </c>
-      <c r="GG67">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="68" spans="1:283" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="B68" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C68" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="F68" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="G68" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H68" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -6685,7 +6615,10 @@
       <c r="W68" t="b">
         <v>0</v>
       </c>
-      <c r="EB68">
+      <c r="EA68">
+        <v>1</v>
+      </c>
+      <c r="FB68">
         <v>1</v>
       </c>
       <c r="FC68">
@@ -6695,7 +6628,7 @@
         <v>1</v>
       </c>
       <c r="FE68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF68">
         <v>0</v>
@@ -6706,41 +6639,38 @@
       <c r="FH68">
         <v>0</v>
       </c>
-      <c r="FI68">
-        <v>0</v>
+      <c r="GE68">
+        <f>GF68</f>
+        <v>2016</v>
       </c>
       <c r="GF68">
-        <f>GG68</f>
         <v>2016</v>
       </c>
-      <c r="GG68">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="69" spans="1:283" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="B69" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C69" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="F69" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="G69" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="H69" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="I69" t="b">
         <v>1</v>
@@ -6751,165 +6681,198 @@
       <c r="Q69" t="b">
         <v>1</v>
       </c>
+      <c r="GE69">
+        <f>GF69</f>
+        <v>2017</v>
+      </c>
       <c r="GF69">
-        <f>GG69</f>
         <v>2017</v>
       </c>
-      <c r="GG69">
-        <v>2017</v>
-      </c>
-      <c r="GJ69">
+      <c r="GI69">
         <v>1614</v>
       </c>
+      <c r="JK69">
+        <v>1</v>
+      </c>
+      <c r="JL69">
+        <v>1</v>
+      </c>
+      <c r="JM69">
+        <v>1</v>
+      </c>
+      <c r="JN69">
+        <v>1</v>
+      </c>
       <c r="JO69">
         <v>1</v>
       </c>
       <c r="JP69">
-        <v>1</v>
-      </c>
-      <c r="JQ69">
-        <v>1</v>
-      </c>
-      <c r="JR69">
-        <v>1</v>
-      </c>
-      <c r="JS69">
-        <v>1</v>
-      </c>
-      <c r="JT69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:283" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="B70" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C70" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F70" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="G70" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H70" t="s">
+        <v>237</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q70" t="b">
+        <v>1</v>
+      </c>
+      <c r="GE70">
+        <f>GF70</f>
+        <v>2016</v>
+      </c>
+      <c r="GF70">
+        <v>2016</v>
+      </c>
+      <c r="GG70" t="s">
+        <v>370</v>
+      </c>
+      <c r="GI70" t="s">
+        <v>371</v>
+      </c>
+      <c r="GL70" t="s">
+        <v>372</v>
+      </c>
+      <c r="GM70" t="s">
+        <v>372</v>
+      </c>
+      <c r="GN70" t="s">
+        <v>372</v>
+      </c>
+      <c r="GO70" t="s">
+        <v>372</v>
+      </c>
+      <c r="GP70" t="s">
+        <v>373</v>
+      </c>
+      <c r="GQ70" t="s">
+        <v>373</v>
+      </c>
+      <c r="GR70" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="71" spans="1:279" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>351</v>
+      </c>
+      <c r="B71" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" t="s">
+        <v>250</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="BV71">
+        <v>1</v>
+      </c>
+      <c r="GB71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:279" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>316</v>
+      </c>
+      <c r="B72" t="s">
+        <v>239</v>
+      </c>
+      <c r="C72" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>235</v>
+      </c>
+      <c r="F72" t="s">
+        <v>253</v>
+      </c>
+      <c r="G72" t="s">
+        <v>231</v>
+      </c>
+      <c r="H72" t="s">
+        <v>237</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>512</v>
+      </c>
+      <c r="Q72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>317</v>
+      </c>
+      <c r="DP72">
+        <v>0</v>
+      </c>
+      <c r="DQ72">
+        <v>1</v>
+      </c>
+      <c r="DR72">
+        <v>0</v>
+      </c>
+      <c r="DS72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:279" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>382</v>
+      </c>
+      <c r="B73" t="s">
+        <v>227</v>
+      </c>
+      <c r="C73" t="s">
+        <v>228</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
         <v>272</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q70" t="b">
-        <v>1</v>
-      </c>
-      <c r="GF70">
-        <f>GG70</f>
-        <v>2016</v>
-      </c>
-      <c r="GG70">
-        <v>2016</v>
-      </c>
-      <c r="GH70" t="s">
-        <v>405</v>
-      </c>
-      <c r="GJ70" t="s">
-        <v>406</v>
-      </c>
-      <c r="GM70" t="s">
-        <v>407</v>
-      </c>
-      <c r="GN70" t="s">
-        <v>407</v>
-      </c>
-      <c r="GO70" t="s">
-        <v>407</v>
-      </c>
-      <c r="GP70" t="s">
-        <v>407</v>
-      </c>
-      <c r="GQ70" t="s">
-        <v>408</v>
-      </c>
-      <c r="GR70" t="s">
-        <v>408</v>
-      </c>
-      <c r="GS70" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="71" spans="1:283" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>316</v>
-      </c>
-      <c r="B71" t="s">
-        <v>269</v>
-      </c>
-      <c r="C71" t="s">
-        <v>317</v>
-      </c>
-      <c r="BZ71">
-        <v>1</v>
-      </c>
-      <c r="CA71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:283" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>369</v>
-      </c>
-      <c r="B72" t="s">
-        <v>269</v>
-      </c>
-      <c r="C72" t="s">
-        <v>370</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="AO72">
-        <v>1</v>
-      </c>
-      <c r="CA72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:283" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>417</v>
-      </c>
-      <c r="B73" t="s">
-        <v>262</v>
-      </c>
-      <c r="C73" t="s">
-        <v>263</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>307</v>
-      </c>
       <c r="F73" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="G73" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="H73" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
@@ -6921,51 +6884,51 @@
         <v>0</v>
       </c>
       <c r="AA73" t="s">
-        <v>315</v>
-      </c>
-      <c r="GF73">
+        <v>280</v>
+      </c>
+      <c r="GE73">
         <v>2014</v>
       </c>
-      <c r="GG73" t="s">
-        <v>419</v>
-      </c>
-      <c r="GJ73">
+      <c r="GF73" t="s">
+        <v>384</v>
+      </c>
+      <c r="GI73">
         <v>702</v>
       </c>
+      <c r="HG73">
+        <v>1</v>
+      </c>
       <c r="HH73">
         <v>1</v>
       </c>
       <c r="HI73">
         <v>1</v>
       </c>
-      <c r="HJ73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:283" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="B74" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C74" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="F74" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="G74" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="H74" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
@@ -6976,15 +6939,24 @@
       <c r="K74">
         <v>1</v>
       </c>
+      <c r="GE74">
+        <f>GF74</f>
+        <v>2017</v>
+      </c>
       <c r="GF74">
-        <f>GG74</f>
         <v>2017</v>
       </c>
-      <c r="GG74">
-        <v>2017</v>
-      </c>
-      <c r="HI74">
-        <v>1</v>
+      <c r="HH74">
+        <v>1</v>
+      </c>
+      <c r="IL74">
+        <v>1</v>
+      </c>
+      <c r="IM74">
+        <v>1</v>
+      </c>
+      <c r="IN74">
+        <v>0</v>
       </c>
       <c r="IO74">
         <v>1</v>
@@ -6995,40 +6967,31 @@
       <c r="IQ74">
         <v>0</v>
       </c>
-      <c r="IR74">
-        <v>1</v>
-      </c>
-      <c r="IS74">
-        <v>1</v>
-      </c>
-      <c r="IT74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:283" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="B75" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C75" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="F75" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="G75" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H75" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="I75" t="b">
         <v>0</v>
@@ -7046,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="AA75" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="AD75">
         <v>1</v>
@@ -7066,76 +7029,61 @@
       <c r="CM75">
         <v>1</v>
       </c>
+      <c r="GE75">
+        <f>GF75</f>
+        <v>2014</v>
+      </c>
       <c r="GF75">
-        <f>GG75</f>
         <v>2014</v>
       </c>
-      <c r="GG75">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="76" spans="1:283" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="B76" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C76" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76" t="s">
-        <v>336</v>
-      </c>
-      <c r="F76" t="s">
-        <v>332</v>
-      </c>
-      <c r="G76" t="s">
-        <v>276</v>
-      </c>
-      <c r="H76" t="s">
-        <v>337</v>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <v>6817</v>
-      </c>
-      <c r="CS76">
-        <v>1</v>
-      </c>
-      <c r="CT76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:283" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="BV76">
+        <v>1</v>
+      </c>
+      <c r="BW76">
+        <v>1</v>
+      </c>
+      <c r="CA76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="B77" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C77" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="F77" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="G77" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H77" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="I77" t="b">
         <v>0</v>
@@ -7146,82 +7094,82 @@
       <c r="Q77" t="b">
         <v>1</v>
       </c>
+      <c r="GE77">
+        <f>GF77</f>
+        <v>2018</v>
+      </c>
       <c r="GF77">
-        <f>GG77</f>
         <v>2018</v>
       </c>
-      <c r="GG77">
-        <v>2018</v>
-      </c>
-      <c r="GJ77">
+      <c r="GI77">
         <v>6016</v>
       </c>
-      <c r="JV77">
-        <v>1</v>
-      </c>
-      <c r="JW77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:283" x14ac:dyDescent="0.2">
+      <c r="JR77">
+        <v>1</v>
+      </c>
+      <c r="JS77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="B78" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C78" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="F78" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="R78" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="AD78">
         <v>1</v>
       </c>
       <c r="AR78" t="s">
-        <v>359</v>
-      </c>
-      <c r="DV78" t="s">
-        <v>360</v>
-      </c>
-      <c r="DW78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:283" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+      <c r="DU78" t="s">
+        <v>325</v>
+      </c>
+      <c r="DV78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B79" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C79" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="F79" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="G79" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H79" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
@@ -7236,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="AA79" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="AQ79">
         <v>0</v>
@@ -7250,66 +7198,66 @@
       <c r="AW79">
         <v>1</v>
       </c>
-      <c r="GF79">
+      <c r="GE79">
         <v>2012</v>
       </c>
-      <c r="GG79" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="80" spans="1:283" x14ac:dyDescent="0.2">
+      <c r="GF79" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="80" spans="1:279" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="B80" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C80" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="F80" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="J80">
         <v>502410</v>
       </c>
       <c r="Q80" t="s">
-        <v>389</v>
-      </c>
-      <c r="GD80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:269" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+      <c r="GC80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:265" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="B81" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C81" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="F81" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="G81" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H81" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -7327,30 +7275,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:265" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="B82" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C82" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="F82" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="G82" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H82" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
@@ -7359,27 +7307,36 @@
         <v>3653</v>
       </c>
       <c r="Q82" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="BX82">
         <v>0</v>
       </c>
       <c r="CG82" t="s">
-        <v>431</v>
+        <v>396</v>
+      </c>
+      <c r="GE82">
+        <f>GF82</f>
+        <v>2017</v>
       </c>
       <c r="GF82">
-        <f>GG82</f>
         <v>2017</v>
       </c>
-      <c r="GG82">
-        <v>2017</v>
-      </c>
-      <c r="GH82" t="s">
-        <v>396</v>
-      </c>
-      <c r="GJ82">
+      <c r="GG82" t="s">
+        <v>361</v>
+      </c>
+      <c r="GI82">
         <v>2898</v>
       </c>
+      <c r="HN82">
+        <v>1</v>
+      </c>
+      <c r="HO82">
+        <v>0</v>
+      </c>
+      <c r="HP82">
+        <v>0</v>
+      </c>
       <c r="HQ82">
         <v>1</v>
       </c>
@@ -7389,40 +7346,31 @@
       <c r="HS82">
         <v>0</v>
       </c>
-      <c r="HT82">
-        <v>1</v>
-      </c>
-      <c r="HU82">
-        <v>0</v>
-      </c>
-      <c r="HV82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:269" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:265" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="B83" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C83" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="F83" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="G83" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="H83" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
@@ -7433,37 +7381,37 @@
       <c r="K83">
         <v>1</v>
       </c>
-      <c r="GF83">
+      <c r="GE83">
         <v>2005</v>
       </c>
-      <c r="GG83" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="84" spans="1:269" x14ac:dyDescent="0.2">
+      <c r="GF83" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="84" spans="1:265" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="B84" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C84" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="F84" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="G84" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H84" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
@@ -7474,47 +7422,47 @@
       <c r="Q84" t="b">
         <v>1</v>
       </c>
+      <c r="GE84">
+        <f>GF84</f>
+        <v>2017</v>
+      </c>
       <c r="GF84">
-        <f>GG84</f>
         <v>2017</v>
       </c>
-      <c r="GG84">
-        <v>2017</v>
-      </c>
-      <c r="GJ84">
+      <c r="GI84">
         <v>468</v>
       </c>
-      <c r="JH84">
-        <v>1</v>
-      </c>
-      <c r="JI84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:269" x14ac:dyDescent="0.2">
+      <c r="JD84">
+        <v>1</v>
+      </c>
+      <c r="JE84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:265" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="B85" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C85" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F85" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="G85" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="H85" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
@@ -7549,38 +7497,38 @@
       <c r="DA85">
         <v>0</v>
       </c>
+      <c r="GE85">
+        <f>GF85</f>
+        <v>2014</v>
+      </c>
       <c r="GF85">
-        <f>GG85</f>
         <v>2014</v>
       </c>
-      <c r="GG85">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="86" spans="1:269" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:265" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="B86" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C86" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="F86" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="G86" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="H86" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
@@ -7588,55 +7536,75 @@
       <c r="J86">
         <v>1905</v>
       </c>
+      <c r="GE86">
+        <f>GF86</f>
+        <v>2016</v>
+      </c>
       <c r="GF86">
-        <f>GG86</f>
         <v>2016</v>
       </c>
-      <c r="GG86">
-        <v>2016</v>
-      </c>
-      <c r="GJ86">
+      <c r="GI86">
         <v>1379</v>
       </c>
+      <c r="HT86">
+        <v>0</v>
+      </c>
+      <c r="HU86">
+        <v>0</v>
+      </c>
+      <c r="HV86">
+        <v>0</v>
+      </c>
       <c r="HW86">
         <v>0</v>
       </c>
-      <c r="HX86">
-        <v>0</v>
-      </c>
-      <c r="HY86">
-        <v>0</v>
-      </c>
-      <c r="HZ86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:269" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:265" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="B87" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="C87" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="BV87">
-        <v>1</v>
-      </c>
-      <c r="GC87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>235</v>
+      </c>
+      <c r="F87" t="s">
+        <v>311</v>
+      </c>
+      <c r="G87" t="s">
+        <v>241</v>
+      </c>
+      <c r="H87" t="s">
+        <v>287</v>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>38841</v>
+      </c>
+      <c r="Q87" t="b">
+        <v>1</v>
+      </c>
+      <c r="W87" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD87">
+        <v>1</v>
+      </c>
+      <c r="DC87">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:KB87" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:KB87">
-      <sortCondition ref="B1:B87"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:JX1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>